--- a/Data Info/DadosEscolhidos.xlsx
+++ b/Data Info/DadosEscolhidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/Trabalho_R/TCC_RSecon/Registro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/GitHub/gdp-forecasting-with-ML/Data Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1463" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF52545-CBAC-472A-8277-F58A14B0C950}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16365" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7890" yWindow="-11145" windowWidth="14400" windowHeight="8655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Séries oficial" sheetId="7" r:id="rId1"/>
@@ -2331,10 +2331,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2602,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC43247-4F7A-412E-B82F-0C6D32656462}">
   <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10313,7 +10309,7 @@
       </c>
       <c r="N82" s="5"/>
       <c r="O82">
-        <f>COUNTIFS(K:K,P82)</f>
+        <f t="shared" ref="O82:O87" si="0">COUNTIFS(K:K,P82)</f>
         <v>6</v>
       </c>
       <c r="P82" t="s">
@@ -10365,7 +10361,7 @@
       </c>
       <c r="N83" s="5"/>
       <c r="O83">
-        <f>COUNTIFS(K:K,P83)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P83" t="s">
@@ -10417,7 +10413,7 @@
       </c>
       <c r="N84" s="5"/>
       <c r="O84">
-        <f>COUNTIFS(K:K,P84)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P84" t="s">
@@ -10469,7 +10465,7 @@
       </c>
       <c r="N85" s="5"/>
       <c r="O85">
-        <f>COUNTIFS(K:K,P85)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P85" t="s">
@@ -10521,7 +10517,7 @@
       </c>
       <c r="N86" s="5"/>
       <c r="O86">
-        <f>COUNTIFS(K:K,P86)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P86" t="s">
@@ -10573,7 +10569,7 @@
       </c>
       <c r="N87" s="5"/>
       <c r="O87">
-        <f>COUNTIFS(K:K,P87)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P87" t="s">
@@ -12344,7 +12340,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2">
-        <f>COUNTIFS(K:K,P2)</f>
+        <f t="shared" ref="O2:O15" si="0">COUNTIFS(K:K,P2)</f>
         <v>6</v>
       </c>
       <c r="P2" t="s">
@@ -12397,7 +12393,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3">
-        <f>COUNTIFS(K:K,P3)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P3" t="s">
@@ -12449,7 +12445,7 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4">
-        <f>COUNTIFS(K:K,P4)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P4" t="s">
@@ -12502,7 +12498,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5">
-        <f>COUNTIFS(K:K,P5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P5" t="s">
@@ -12555,7 +12551,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6">
-        <f>COUNTIFS(K:K,P6)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P6" t="s">
@@ -12608,7 +12604,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7">
-        <f>COUNTIFS(K:K,P7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P7" t="s">
@@ -12658,7 +12654,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8">
-        <f>COUNTIFS(K:K,P8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P8" t="s">
@@ -12707,7 +12703,7 @@
       </c>
       <c r="M9" s="4"/>
       <c r="O9">
-        <f>COUNTIFS(K:K,P9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="P9" t="s">
@@ -12756,7 +12752,7 @@
       </c>
       <c r="N10" s="5"/>
       <c r="O10">
-        <f>COUNTIFS(K:K,P10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P10" t="s">
@@ -12806,7 +12802,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11">
-        <f>COUNTIFS(K:K,P11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P11" t="s">
@@ -12856,7 +12852,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12">
-        <f>COUNTIFS(K:K,P12)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P12" t="s">
@@ -12909,7 +12905,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13">
-        <f>COUNTIFS(K:K,P13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P13" t="s">
@@ -12962,7 +12958,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14">
-        <f>COUNTIFS(K:K,P14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P14" t="s">
@@ -13014,7 +13010,7 @@
       </c>
       <c r="M15" s="5"/>
       <c r="O15">
-        <f>COUNTIFS(K:K,P15)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P15" t="s">

--- a/Data Info/DadosEscolhidos.xlsx
+++ b/Data Info/DadosEscolhidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/GitHub/gdp-forecasting-with-ML/Data Info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/Trabalho_R/TCC_RSecon/Registro/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1463" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF52545-CBAC-472A-8277-F58A14B0C950}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7890" yWindow="-11145" windowWidth="14400" windowHeight="8655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16365" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Séries oficial" sheetId="7" r:id="rId1"/>
@@ -2331,6 +2331,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2598,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC43247-4F7A-412E-B82F-0C6D32656462}">
   <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10309,7 +10313,7 @@
       </c>
       <c r="N82" s="5"/>
       <c r="O82">
-        <f t="shared" ref="O82:O87" si="0">COUNTIFS(K:K,P82)</f>
+        <f>COUNTIFS(K:K,P82)</f>
         <v>6</v>
       </c>
       <c r="P82" t="s">
@@ -10361,7 +10365,7 @@
       </c>
       <c r="N83" s="5"/>
       <c r="O83">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P83)</f>
         <v>1</v>
       </c>
       <c r="P83" t="s">
@@ -10413,7 +10417,7 @@
       </c>
       <c r="N84" s="5"/>
       <c r="O84">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P84)</f>
         <v>13</v>
       </c>
       <c r="P84" t="s">
@@ -10465,7 +10469,7 @@
       </c>
       <c r="N85" s="5"/>
       <c r="O85">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P85)</f>
         <v>1</v>
       </c>
       <c r="P85" t="s">
@@ -10517,7 +10521,7 @@
       </c>
       <c r="N86" s="5"/>
       <c r="O86">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P86)</f>
         <v>5</v>
       </c>
       <c r="P86" t="s">
@@ -10569,7 +10573,7 @@
       </c>
       <c r="N87" s="5"/>
       <c r="O87">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P87)</f>
         <v>13</v>
       </c>
       <c r="P87" t="s">
@@ -12340,7 +12344,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2">
-        <f t="shared" ref="O2:O15" si="0">COUNTIFS(K:K,P2)</f>
+        <f>COUNTIFS(K:K,P2)</f>
         <v>6</v>
       </c>
       <c r="P2" t="s">
@@ -12393,7 +12397,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P3)</f>
         <v>13</v>
       </c>
       <c r="P3" t="s">
@@ -12445,7 +12449,7 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P4)</f>
         <v>5</v>
       </c>
       <c r="P4" t="s">
@@ -12498,7 +12502,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P5)</f>
         <v>1</v>
       </c>
       <c r="P5" t="s">
@@ -12551,7 +12555,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P6)</f>
         <v>13</v>
       </c>
       <c r="P6" t="s">
@@ -12604,7 +12608,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P7)</f>
         <v>1</v>
       </c>
       <c r="P7" t="s">
@@ -12654,7 +12658,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P8)</f>
         <v>1</v>
       </c>
       <c r="P8" t="s">
@@ -12703,7 +12707,7 @@
       </c>
       <c r="M9" s="4"/>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P9)</f>
         <v>15</v>
       </c>
       <c r="P9" t="s">
@@ -12752,7 +12756,7 @@
       </c>
       <c r="N10" s="5"/>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P10)</f>
         <v>4</v>
       </c>
       <c r="P10" t="s">
@@ -12802,7 +12806,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P11)</f>
         <v>6</v>
       </c>
       <c r="P11" t="s">
@@ -12852,7 +12856,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P12)</f>
         <v>11</v>
       </c>
       <c r="P12" t="s">
@@ -12905,7 +12909,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P13)</f>
         <v>3</v>
       </c>
       <c r="P13" t="s">
@@ -12958,7 +12962,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P14)</f>
         <v>7</v>
       </c>
       <c r="P14" t="s">
@@ -13010,7 +13014,7 @@
       </c>
       <c r="M15" s="5"/>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(K:K,P15)</f>
         <v>10</v>
       </c>
       <c r="P15" t="s">

--- a/Data Info/DadosEscolhidos.xlsx
+++ b/Data Info/DadosEscolhidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/GitHub/gdp-forecasting-with-ML/Data Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1671" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{073AE1E5-9F77-45A6-A7E0-7CF50EC135AB}"/>
+  <xr:revisionPtr revIDLastSave="2225" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D1A83B-A3FC-4368-8EC0-C5C76B38FE96}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Official Series - Quarterly" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Table M" sheetId="10" r:id="rId4"/>
     <sheet name="All Series" sheetId="1" state="hidden" r:id="rId5"/>
     <sheet name="All Series (2)" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="exports_SAseries" sheetId="3" r:id="rId7"/>
+    <sheet name="Planilha1" sheetId="11" r:id="rId7"/>
+    <sheet name="exports_SAseries" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Official Series - Quarterly'!$A$1:$J$101</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6228" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6303" uniqueCount="630">
   <si>
     <t>NSAprod_cam_br</t>
   </si>
@@ -1801,12 +1802,187 @@
   <si>
     <t>Índice de preços IGP-M (1º decêndio e 2º decêndio) - Variação acumulada em 3 meses</t>
   </si>
+  <si>
+    <t>lasso_model1q</t>
+  </si>
+  <si>
+    <t>benchmark1q</t>
+  </si>
+  <si>
+    <t>enet_model1q</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># h=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># h=4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE </t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>benchmark2q</t>
+  </si>
+  <si>
+    <t>lasso_model2q</t>
+  </si>
+  <si>
+    <t>enet_model2q</t>
+  </si>
+  <si>
+    <t>benchmark3q</t>
+  </si>
+  <si>
+    <t>lasso_model3q</t>
+  </si>
+  <si>
+    <t>enet_model3q</t>
+  </si>
+  <si>
+    <t>benchmark4q</t>
+  </si>
+  <si>
+    <t>lasso_model4q</t>
+  </si>
+  <si>
+    <t>enet_model4q</t>
+  </si>
+  <si>
+    <t>benchmark5q</t>
+  </si>
+  <si>
+    <t>lasso_model5q</t>
+  </si>
+  <si>
+    <t>enet_model5q</t>
+  </si>
+  <si>
+    <t>- raw_gdp made by mean, no logs, no dummies</t>
+  </si>
+  <si>
+    <t>- raw_gdp made by mean, no logs, all dummies</t>
+  </si>
+  <si>
+    <t>- raw_gdp made by mean, no logs, no dflood</t>
+  </si>
+  <si>
+    <t>- raw_gdp made by mean, no logs, no dshift</t>
+  </si>
+  <si>
+    <t>- raw_gdp made by mean, no logs, only dpandemic</t>
+  </si>
+  <si>
+    <t>1st try - logmresults ----------- old log fun</t>
+  </si>
+  <si>
+    <t>2nd try - logwresults ----------- new log fun</t>
+  </si>
+  <si>
+    <t>3rd try - rawm_ibc ----------- no log, raw data</t>
+  </si>
+  <si>
+    <t>4th try - rawm_stry --------- no log fun, but adf test</t>
+  </si>
+  <si>
+    <t>benchmark1w</t>
+  </si>
+  <si>
+    <t>lasso_model1w</t>
+  </si>
+  <si>
+    <t>enet_model1w</t>
+  </si>
+  <si>
+    <t>benchmark2w</t>
+  </si>
+  <si>
+    <t>lasso_model2w</t>
+  </si>
+  <si>
+    <t>enet_model2w</t>
+  </si>
+  <si>
+    <t>benchmark3w</t>
+  </si>
+  <si>
+    <t>lasso_model3w</t>
+  </si>
+  <si>
+    <t>enet_model3w</t>
+  </si>
+  <si>
+    <t>benchmark4w</t>
+  </si>
+  <si>
+    <t>lasso_model4w</t>
+  </si>
+  <si>
+    <t>enet_model4w</t>
+  </si>
+  <si>
+    <t># h=12</t>
+  </si>
+  <si>
+    <t>6 monthly, 6 quarterly</t>
+  </si>
+  <si>
+    <t>title h = 1</t>
+  </si>
+  <si>
+    <t>title h=12</t>
+  </si>
+  <si>
+    <t>half legend</t>
+  </si>
+  <si>
+    <t>other half, no leg title</t>
+  </si>
+  <si>
+    <t>lasso</t>
+  </si>
+  <si>
+    <t>enet</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>lasso_model</t>
+  </si>
+  <si>
+    <t>enet_model</t>
+  </si>
+  <si>
+    <t>rf_model</t>
+  </si>
+  <si>
+    <t>rf_model2w</t>
+  </si>
+  <si>
+    <t>datasetm</t>
+  </si>
+  <si>
+    <t>old log, seas nsdiffs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1854,8 +2030,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1880,12 +2068,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1895,7 +2104,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1914,6 +2123,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2204,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC43247-4F7A-412E-B82F-0C6D32656462}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1048576"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2288,7 +2534,7 @@
         <v>227</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N16" si="0">COUNTIFS(I:I,M2)</f>
+        <f t="shared" ref="N2:N7" si="0">COUNTIFS(I:I,M2)</f>
         <v>8</v>
       </c>
       <c r="O2">
@@ -2554,7 +2800,7 @@
         <v>224</v>
       </c>
       <c r="N8">
-        <f>COUNTIFS(I:I,M8)</f>
+        <f t="shared" ref="N8:N14" si="1">COUNTIFS(I:I,M8)</f>
         <v>6</v>
       </c>
     </row>
@@ -2596,7 +2842,7 @@
         <v>238</v>
       </c>
       <c r="N9">
-        <f>COUNTIFS(I:I,M9)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -2638,7 +2884,7 @@
         <v>233</v>
       </c>
       <c r="N10">
-        <f>COUNTIFS(I:I,M10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -2680,7 +2926,7 @@
         <v>225</v>
       </c>
       <c r="N11">
-        <f>COUNTIFS(I:I,M11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2722,7 +2968,7 @@
         <v>230</v>
       </c>
       <c r="N12">
-        <f>COUNTIFS(I:I,M12)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -2764,7 +3010,7 @@
         <v>232</v>
       </c>
       <c r="N13">
-        <f>COUNTIFS(I:I,M13)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2806,7 +3052,7 @@
         <v>231</v>
       </c>
       <c r="N14">
-        <f>COUNTIFS(I:I,M14)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3037,7 +3283,7 @@
         <v>545</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20" si="1">COUNTIFS(K:K,M20)</f>
+        <f t="shared" ref="N20" si="2">COUNTIFS(K:K,M20)</f>
         <v>7</v>
       </c>
     </row>
@@ -5887,7 +6133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07748F0C-CE3F-42B1-961E-411301A80C4F}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -23320,6 +23566,911 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3870FAA5-0C9A-4077-820D-651F982FFC52}">
+  <dimension ref="H3:Y41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>576</v>
+      </c>
+      <c r="L3" t="s">
+        <v>577</v>
+      </c>
+      <c r="M3" t="s">
+        <v>576</v>
+      </c>
+      <c r="N3" t="s">
+        <v>577</v>
+      </c>
+      <c r="O3" t="s">
+        <v>576</v>
+      </c>
+      <c r="P3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>578</v>
+      </c>
+      <c r="L4" t="s">
+        <v>578</v>
+      </c>
+      <c r="M4" t="s">
+        <v>579</v>
+      </c>
+      <c r="N4" t="s">
+        <v>579</v>
+      </c>
+      <c r="O4" t="s">
+        <v>580</v>
+      </c>
+      <c r="P4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I5" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="15">
+        <v>10.138339999999999</v>
+      </c>
+      <c r="L5" s="15">
+        <v>11.06123</v>
+      </c>
+      <c r="M5" s="15">
+        <v>7.387079</v>
+      </c>
+      <c r="N5" s="15">
+        <v>7.043361</v>
+      </c>
+      <c r="O5" s="15">
+        <v>5.4638929999999997</v>
+      </c>
+      <c r="P5" s="15">
+        <v>5.0934699999999999</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I6" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="16">
+        <v>5.3373280000000003</v>
+      </c>
+      <c r="L6" s="12">
+        <v>8.0436940000000003</v>
+      </c>
+      <c r="M6" s="12">
+        <v>4.3954370000000003</v>
+      </c>
+      <c r="N6" s="12">
+        <v>6.2554879999999997</v>
+      </c>
+      <c r="O6" s="12">
+        <v>3.273847</v>
+      </c>
+      <c r="P6" s="12">
+        <v>4.6032760000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I7" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="17">
+        <v>5.5069629999999998</v>
+      </c>
+      <c r="L7" s="12">
+        <v>7.9476279999999999</v>
+      </c>
+      <c r="M7" s="17">
+        <v>4.2647430000000002</v>
+      </c>
+      <c r="N7" s="12">
+        <v>6.2991429999999999</v>
+      </c>
+      <c r="O7" s="17">
+        <v>3.1697690000000001</v>
+      </c>
+      <c r="P7" s="12">
+        <v>4.6444510000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I8" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15">
+        <v>10.138339999999999</v>
+      </c>
+      <c r="L8" s="15">
+        <v>11.06123</v>
+      </c>
+      <c r="M8" s="15">
+        <v>7.387079</v>
+      </c>
+      <c r="N8" s="15">
+        <v>7.043361</v>
+      </c>
+      <c r="O8" s="15">
+        <v>5.4638929999999997</v>
+      </c>
+      <c r="P8" s="15">
+        <v>5.0934699999999999</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I9" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12">
+        <v>5.3612840000000004</v>
+      </c>
+      <c r="L9" s="12">
+        <v>7.6462380000000003</v>
+      </c>
+      <c r="M9" s="16">
+        <v>4.273517</v>
+      </c>
+      <c r="N9" s="12">
+        <v>5.8681039999999998</v>
+      </c>
+      <c r="O9" s="16">
+        <v>3.1899090000000001</v>
+      </c>
+      <c r="P9" s="12">
+        <v>4.3203310000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I10" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12">
+        <v>5.9704059999999997</v>
+      </c>
+      <c r="L10" s="17">
+        <v>7.6325320000000003</v>
+      </c>
+      <c r="M10" s="12">
+        <v>4.5451629999999996</v>
+      </c>
+      <c r="N10" s="17">
+        <v>5.8982469999999996</v>
+      </c>
+      <c r="O10" s="12">
+        <v>3.3889990000000001</v>
+      </c>
+      <c r="P10" s="17">
+        <v>4.3434660000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="H11" s="18"/>
+      <c r="I11" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="15">
+        <v>10.138339999999999</v>
+      </c>
+      <c r="L11" s="15">
+        <v>11.06123</v>
+      </c>
+      <c r="M11" s="15">
+        <v>7.387079</v>
+      </c>
+      <c r="N11" s="15">
+        <v>7.043361</v>
+      </c>
+      <c r="O11" s="15">
+        <v>5.4638929999999997</v>
+      </c>
+      <c r="P11" s="15">
+        <v>5.0934699999999999</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>595</v>
+      </c>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="H12" s="18"/>
+      <c r="I12" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12">
+        <v>5.3612840000000004</v>
+      </c>
+      <c r="L12" s="12">
+        <v>7.6462380000000003</v>
+      </c>
+      <c r="M12" s="16">
+        <v>4.273517</v>
+      </c>
+      <c r="N12" s="12">
+        <v>5.8681039999999998</v>
+      </c>
+      <c r="O12" s="16">
+        <v>3.1899090000000001</v>
+      </c>
+      <c r="P12" s="12">
+        <v>4.3203310000000004</v>
+      </c>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="H13" s="18"/>
+      <c r="I13" t="s">
+        <v>586</v>
+      </c>
+      <c r="K13" s="12">
+        <v>5.9704059999999997</v>
+      </c>
+      <c r="L13" s="17">
+        <v>7.6325320000000003</v>
+      </c>
+      <c r="M13" s="12">
+        <v>4.5451629999999996</v>
+      </c>
+      <c r="N13" s="17">
+        <v>5.8982469999999996</v>
+      </c>
+      <c r="O13" s="12">
+        <v>3.3889990000000001</v>
+      </c>
+      <c r="P13" s="17">
+        <v>4.3434660000000003</v>
+      </c>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I14" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="15">
+        <v>10.138339999999999</v>
+      </c>
+      <c r="L14" s="15">
+        <v>11.06123</v>
+      </c>
+      <c r="M14" s="15">
+        <v>7.387079</v>
+      </c>
+      <c r="N14" s="15">
+        <v>7.043361</v>
+      </c>
+      <c r="O14" s="15">
+        <v>5.4638929999999997</v>
+      </c>
+      <c r="P14" s="15">
+        <v>5.0934699999999999</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>588</v>
+      </c>
+      <c r="K15" s="12">
+        <v>5.4057740000000001</v>
+      </c>
+      <c r="L15" s="16">
+        <v>7.6163400000000001</v>
+      </c>
+      <c r="M15" s="12">
+        <v>4.3369090000000003</v>
+      </c>
+      <c r="N15" s="16">
+        <v>5.8291069999999996</v>
+      </c>
+      <c r="O15" s="12">
+        <v>3.2369050000000001</v>
+      </c>
+      <c r="P15" s="16">
+        <v>4.291474</v>
+      </c>
+    </row>
+    <row r="16" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>589</v>
+      </c>
+      <c r="K16" s="12">
+        <v>5.9582610000000003</v>
+      </c>
+      <c r="L16" s="12">
+        <v>7.656339</v>
+      </c>
+      <c r="M16" s="12">
+        <v>4.5040079999999998</v>
+      </c>
+      <c r="N16" s="12">
+        <v>5.9440749999999998</v>
+      </c>
+      <c r="O16" s="12">
+        <v>3.3588460000000002</v>
+      </c>
+      <c r="P16" s="12">
+        <v>4.3810200000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I17" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="15">
+        <v>10.138339999999999</v>
+      </c>
+      <c r="L17" s="15">
+        <v>11.06123</v>
+      </c>
+      <c r="M17" s="15">
+        <v>7.387079</v>
+      </c>
+      <c r="N17" s="15">
+        <v>7.043361</v>
+      </c>
+      <c r="O17" s="15">
+        <v>5.4638929999999997</v>
+      </c>
+      <c r="P17" s="15">
+        <v>5.0934699999999999</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="18" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>591</v>
+      </c>
+      <c r="K18" s="12">
+        <v>5.4057740000000001</v>
+      </c>
+      <c r="L18" s="16">
+        <v>7.6163400000000001</v>
+      </c>
+      <c r="M18" s="12">
+        <v>4.3369090000000003</v>
+      </c>
+      <c r="N18" s="16">
+        <v>5.8291069999999996</v>
+      </c>
+      <c r="O18" s="12">
+        <v>3.2369050000000001</v>
+      </c>
+      <c r="P18" s="16">
+        <v>4.291474</v>
+      </c>
+    </row>
+    <row r="19" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>592</v>
+      </c>
+      <c r="K19" s="12">
+        <v>5.9582610000000003</v>
+      </c>
+      <c r="L19" s="12">
+        <v>7.656339</v>
+      </c>
+      <c r="M19" s="12">
+        <v>4.5040079999999998</v>
+      </c>
+      <c r="N19" s="12">
+        <v>5.9440749999999998</v>
+      </c>
+      <c r="O19" s="12">
+        <v>3.3588460000000002</v>
+      </c>
+      <c r="P19" s="12">
+        <v>4.3810200000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>576</v>
+      </c>
+      <c r="L22" t="s">
+        <v>614</v>
+      </c>
+      <c r="M22" t="s">
+        <v>576</v>
+      </c>
+      <c r="N22" t="s">
+        <v>614</v>
+      </c>
+      <c r="O22" t="s">
+        <v>576</v>
+      </c>
+      <c r="P22" t="s">
+        <v>614</v>
+      </c>
+      <c r="X22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>578</v>
+      </c>
+      <c r="L23" t="s">
+        <v>578</v>
+      </c>
+      <c r="M23" t="s">
+        <v>579</v>
+      </c>
+      <c r="N23" t="s">
+        <v>579</v>
+      </c>
+      <c r="O23" t="s">
+        <v>580</v>
+      </c>
+      <c r="P23" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="24" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>623</v>
+      </c>
+      <c r="K24" s="19">
+        <v>6.6295580000000007E-2</v>
+      </c>
+      <c r="L24" s="13">
+        <v>9.8374290000000003E-2</v>
+      </c>
+      <c r="M24" s="19">
+        <v>4.8804380000000001E-2</v>
+      </c>
+      <c r="N24" s="13">
+        <v>7.0079680000000005E-2</v>
+      </c>
+      <c r="O24" s="19">
+        <v>1.048171</v>
+      </c>
+      <c r="P24" s="13">
+        <v>1.5017780000000001</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>628</v>
+      </c>
+      <c r="R24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>624</v>
+      </c>
+      <c r="K25" s="13">
+        <v>3.6495979999999997E-2</v>
+      </c>
+      <c r="L25" s="13">
+        <v>5.9897640000000002E-2</v>
+      </c>
+      <c r="M25" s="13">
+        <v>2.8393020000000001E-2</v>
+      </c>
+      <c r="N25" s="13">
+        <v>4.3121090000000001E-2</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0.61500900000000003</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0.93870880000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>625</v>
+      </c>
+      <c r="K26" s="13">
+        <v>5.0724129999999999E-2</v>
+      </c>
+      <c r="L26" s="13">
+        <v>6.4122650000000003E-2</v>
+      </c>
+      <c r="M26" s="13">
+        <v>3.893112E-2</v>
+      </c>
+      <c r="N26" s="13">
+        <v>5.13068E-2</v>
+      </c>
+      <c r="O26" s="13">
+        <v>0.83906159999999996</v>
+      </c>
+      <c r="P26" s="13">
+        <v>1.1120433000000001</v>
+      </c>
+      <c r="X26" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="27" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>626</v>
+      </c>
+      <c r="K27" s="24">
+        <v>5.0135369999999999E-2</v>
+      </c>
+      <c r="L27" s="24">
+        <v>5.4280870000000002E-2</v>
+      </c>
+      <c r="M27" s="24">
+        <v>3.5086409999999998E-2</v>
+      </c>
+      <c r="N27" s="24">
+        <v>4.0220220000000001E-2</v>
+      </c>
+      <c r="O27" s="24">
+        <v>0.75690360000000001</v>
+      </c>
+      <c r="P27" s="24">
+        <v>0.86743199999999998</v>
+      </c>
+      <c r="X27" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y27" s="18"/>
+    </row>
+    <row r="28" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="H28" s="23"/>
+      <c r="I28" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="14">
+        <v>6.7389569999999996E-2</v>
+      </c>
+      <c r="L28" s="20">
+        <v>9.6357360000000003E-2</v>
+      </c>
+      <c r="M28" s="14">
+        <v>5.007342E-2</v>
+      </c>
+      <c r="N28" s="20">
+        <v>6.8928249999999996E-2</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1.0766389999999999</v>
+      </c>
+      <c r="P28" s="20">
+        <v>1.4784839999999999</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>598</v>
+      </c>
+      <c r="U28" s="23"/>
+      <c r="X28" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y28" s="18"/>
+    </row>
+    <row r="29" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="H29" s="23"/>
+      <c r="I29" t="s">
+        <v>603</v>
+      </c>
+      <c r="K29" s="21">
+        <v>3.5456799999999997E-2</v>
+      </c>
+      <c r="L29" s="21">
+        <v>5.7688940000000001E-2</v>
+      </c>
+      <c r="M29" s="21">
+        <v>2.732362E-2</v>
+      </c>
+      <c r="N29" s="21">
+        <v>4.1704409999999997E-2</v>
+      </c>
+      <c r="O29" s="21">
+        <v>0.59215430000000002</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0.90730739999999999</v>
+      </c>
+      <c r="U29" s="23"/>
+      <c r="X29" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y29" s="18"/>
+    </row>
+    <row r="30" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="H30" s="23"/>
+      <c r="I30" t="s">
+        <v>604</v>
+      </c>
+      <c r="K30" s="22">
+        <v>4.9312519999999999E-2</v>
+      </c>
+      <c r="L30" s="22">
+        <v>6.2136660000000003E-2</v>
+      </c>
+      <c r="M30" s="22">
+        <v>3.7580210000000003E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>4.9575040000000001E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>0.81035729999999995</v>
+      </c>
+      <c r="P30" s="22">
+        <v>1.0750708</v>
+      </c>
+      <c r="U30" s="23"/>
+      <c r="X30" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="31" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I31" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="14">
+        <v>6.7389569999999996E-2</v>
+      </c>
+      <c r="L31" s="20">
+        <v>9.6357360000000003E-2</v>
+      </c>
+      <c r="M31" s="14">
+        <v>5.007342E-2</v>
+      </c>
+      <c r="N31" s="20">
+        <v>6.8928249999999996E-2</v>
+      </c>
+      <c r="O31" s="14">
+        <v>1.0766389999999999</v>
+      </c>
+      <c r="P31" s="20">
+        <v>1.4784839999999999</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="32" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>606</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0.10952291</v>
+      </c>
+      <c r="L32" s="13">
+        <v>6.3788289999999997E-2</v>
+      </c>
+      <c r="M32" s="13">
+        <v>4.4270120000000003E-2</v>
+      </c>
+      <c r="N32" s="13">
+        <v>4.4905760000000003E-2</v>
+      </c>
+      <c r="O32" s="13">
+        <v>0.96270840000000002</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0.97586759999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>607</v>
+      </c>
+      <c r="K33" s="13">
+        <v>5.2181999999999999E-2</v>
+      </c>
+      <c r="L33" s="13">
+        <v>6.6322430000000002E-2</v>
+      </c>
+      <c r="M33" s="13">
+        <v>3.865532E-2</v>
+      </c>
+      <c r="N33" s="13">
+        <v>5.1502010000000001E-2</v>
+      </c>
+      <c r="O33" s="13">
+        <v>0.83366150000000006</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1.1166924</v>
+      </c>
+    </row>
+    <row r="34" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="36" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I36" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="14">
+        <v>7.3945249999999998</v>
+      </c>
+      <c r="L36" s="14">
+        <v>10.177414000000001</v>
+      </c>
+      <c r="M36" s="14">
+        <v>5.3058959999999997</v>
+      </c>
+      <c r="N36" s="14">
+        <v>7.203055</v>
+      </c>
+      <c r="O36" s="14">
+        <v>5.0400410000000004</v>
+      </c>
+      <c r="P36" s="14">
+        <v>6.8124219999999998</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>609</v>
+      </c>
+      <c r="K37" s="13">
+        <v>3.7484489999999999</v>
+      </c>
+      <c r="L37" s="13">
+        <v>5.9246020000000001</v>
+      </c>
+      <c r="M37" s="13">
+        <v>2.8394059999999999</v>
+      </c>
+      <c r="N37" s="13">
+        <v>4.3051529999999998</v>
+      </c>
+      <c r="O37" s="13">
+        <v>2.7975469999999998</v>
+      </c>
+      <c r="P37" s="13">
+        <v>4.2833860000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I38" t="s">
+        <v>610</v>
+      </c>
+      <c r="K38" s="13">
+        <v>3.7453059999999998</v>
+      </c>
+      <c r="L38" s="13">
+        <v>5.4190430000000003</v>
+      </c>
+      <c r="M38" s="13">
+        <v>2.8651089999999999</v>
+      </c>
+      <c r="N38" s="13">
+        <v>3.8482769999999999</v>
+      </c>
+      <c r="O38" s="13">
+        <v>2.8197679999999998</v>
+      </c>
+      <c r="P38" s="13">
+        <v>3.8382869999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I39" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="14">
+        <v>7.3865740000000004</v>
+      </c>
+      <c r="L39" s="14">
+        <v>10.201127</v>
+      </c>
+      <c r="M39" s="14">
+        <v>5.272157</v>
+      </c>
+      <c r="N39" s="14">
+        <v>7.1923769999999996</v>
+      </c>
+      <c r="O39" s="14">
+        <v>4.9960110000000002</v>
+      </c>
+      <c r="P39" s="14">
+        <v>6.7898480000000001</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="40" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>612</v>
+      </c>
+      <c r="K40" s="13">
+        <v>3.8589190000000002</v>
+      </c>
+      <c r="L40" s="13">
+        <v>5.7759210000000003</v>
+      </c>
+      <c r="M40" s="13">
+        <v>2.9577749999999998</v>
+      </c>
+      <c r="N40" s="13">
+        <v>4.1816709999999997</v>
+      </c>
+      <c r="O40" s="13">
+        <v>2.9247450000000002</v>
+      </c>
+      <c r="P40" s="13">
+        <v>4.1689720000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I41" t="s">
+        <v>613</v>
+      </c>
+      <c r="K41" s="13">
+        <v>3.8382070000000001</v>
+      </c>
+      <c r="L41" s="13">
+        <v>5.5115879999999997</v>
+      </c>
+      <c r="M41" s="13">
+        <v>2.981779</v>
+      </c>
+      <c r="N41" s="13">
+        <v>4.1152639999999998</v>
+      </c>
+      <c r="O41" s="13">
+        <v>2.9371160000000001</v>
+      </c>
+      <c r="P41" s="13">
+        <v>4.1176490000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EB6AD7-BBCF-41A4-A705-09A536484B28}">
   <dimension ref="A1:A39"/>
   <sheetViews>

--- a/Data Info/DadosEscolhidos.xlsx
+++ b/Data Info/DadosEscolhidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/GitHub/gdp-forecasting-with-ML/Data Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2225" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D1A83B-A3FC-4368-8EC0-C5C76B38FE96}"/>
+  <xr:revisionPtr revIDLastSave="2401" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BE02FB7-C322-49F9-A54B-FB93B901241F}"/>
   <bookViews>
     <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6303" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6358" uniqueCount="642">
   <si>
     <t>NSAprod_cam_br</t>
   </si>
@@ -1929,30 +1929,6 @@
     <t># h=12</t>
   </si>
   <si>
-    <t>6 monthly, 6 quarterly</t>
-  </si>
-  <si>
-    <t>title h = 1</t>
-  </si>
-  <si>
-    <t>title h=12</t>
-  </si>
-  <si>
-    <t>half legend</t>
-  </si>
-  <si>
-    <t>other half, no leg title</t>
-  </si>
-  <si>
-    <t>lasso</t>
-  </si>
-  <si>
-    <t>enet</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
     <t>benchmark</t>
   </si>
   <si>
@@ -1965,22 +1941,84 @@
     <t>rf_model</t>
   </si>
   <si>
-    <t>rf_model2w</t>
-  </si>
-  <si>
     <t>datasetm</t>
   </si>
   <si>
     <t>old log, seas nsdiffs</t>
+  </si>
+  <si>
+    <t>rf_model1w</t>
+  </si>
+  <si>
+    <t>LASSO</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>rRMSE</t>
+  </si>
+  <si>
+    <t>Quarterly analysis</t>
+  </si>
+  <si>
+    <t>Monthly analysis</t>
+  </si>
+  <si>
+    <t>Horizon 1</t>
+  </si>
+  <si>
+    <t>Horizon 4</t>
+  </si>
+  <si>
+    <t>Horizon 12</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>RF_model3q</t>
+  </si>
+  <si>
+    <t>1st option</t>
+  </si>
+  <si>
+    <t>2nd option</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>"2.858255e-04***"</t>
+  </si>
+  <si>
+    <t>"7.452197e-04***"</t>
+  </si>
+  <si>
+    <t>"3.311928e-03**"</t>
+  </si>
+  <si>
+    <t>"5.831510e-05***"</t>
+  </si>
+  <si>
+    <t>"9.126611e-03**"</t>
+  </si>
+  <si>
+    <t>"2.155552e-07***"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="181" formatCode="0.0000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2043,7 +2081,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2080,6 +2118,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2104,7 +2148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2126,14 +2170,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2146,20 +2189,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23567,10 +23628,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3870FAA5-0C9A-4077-820D-651F982FFC52}">
-  <dimension ref="H3:Y41"/>
+  <dimension ref="H3:AI48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23578,6 +23639,7 @@
     <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="8:22" x14ac:dyDescent="0.35">
@@ -23625,22 +23687,22 @@
         <v>574</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>10.138339999999999</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>11.06123</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>7.387079</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>7.043361</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>5.4638929999999997</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>5.0934699999999999</v>
       </c>
       <c r="Q5" t="s">
@@ -23648,50 +23710,48 @@
       </c>
     </row>
     <row r="6" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="I6" s="11" t="s">
+      <c r="I6" t="s">
         <v>573</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>5.3373280000000003</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>8.0436940000000003</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>4.3954370000000003</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>6.2554879999999997</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>3.273847</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>4.6032760000000001</v>
       </c>
     </row>
     <row r="7" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="I7" s="11" t="s">
+      <c r="I7" t="s">
         <v>575</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>5.5069629999999998</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>7.9476279999999999</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>4.2647430000000002</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>6.2991429999999999</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <v>3.1697690000000001</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>4.6444510000000001</v>
       </c>
     </row>
@@ -23700,22 +23760,22 @@
         <v>581</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>10.138339999999999</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>11.06123</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>7.387079</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>7.043361</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>5.4638929999999997</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>5.0934699999999999</v>
       </c>
       <c r="Q8" t="s">
@@ -23723,280 +23783,322 @@
       </c>
     </row>
     <row r="9" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="I9" s="11" t="s">
+      <c r="I9" t="s">
         <v>582</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>5.3612840000000004</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>7.6462380000000003</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <v>4.273517</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>5.8681039999999998</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <v>3.1899090000000001</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <v>4.3203310000000004</v>
       </c>
     </row>
     <row r="10" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="I10" s="11" t="s">
+      <c r="I10" t="s">
         <v>583</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>5.9704059999999997</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>7.6325320000000003</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>4.5451629999999996</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>5.8982469999999996</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>3.3889990000000001</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <v>4.3434660000000003</v>
       </c>
     </row>
     <row r="11" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="H11" s="18"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="10" t="s">
         <v>584</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>10.138339999999999</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <v>11.06123</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <v>7.387079</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <v>7.043361</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <v>5.4638929999999997</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <v>5.0934699999999999</v>
       </c>
       <c r="Q11" t="s">
         <v>595</v>
       </c>
-      <c r="V11" s="18"/>
+      <c r="V11" s="17"/>
     </row>
     <row r="12" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="H12" s="18"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" t="s">
         <v>585</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>5.3612840000000004</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>7.6462380000000003</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <v>4.273517</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>5.8681039999999998</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="15">
         <v>3.1899090000000001</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>4.3203310000000004</v>
       </c>
-      <c r="V12" s="18"/>
+      <c r="V12" s="17"/>
     </row>
     <row r="13" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="H13" s="18"/>
+      <c r="H13" s="17"/>
       <c r="I13" t="s">
         <v>586</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>5.9704059999999997</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>7.6325320000000003</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>4.5451629999999996</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>5.8982469999999996</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>3.3889990000000001</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <v>4.3434660000000003</v>
       </c>
-      <c r="V13" s="18"/>
+      <c r="V13" s="17"/>
     </row>
     <row r="14" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="I14" s="10" t="s">
+      <c r="I14" t="s">
+        <v>632</v>
+      </c>
+      <c r="K14" s="11">
+        <v>7.4797289999999998</v>
+      </c>
+      <c r="L14" s="11">
+        <v>7.5066800000000002</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="11">
+        <v>3.3251400000000002</v>
+      </c>
+      <c r="P14" s="11">
+        <v>4.095269</v>
+      </c>
+    </row>
+    <row r="15" spans="8:22" x14ac:dyDescent="0.35">
+      <c r="I15" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="15">
+      <c r="J15" s="10"/>
+      <c r="K15" s="14">
         <v>10.138339999999999</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L15" s="14">
         <v>11.06123</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M15" s="14">
         <v>7.387079</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N15" s="14">
         <v>7.043361</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O15" s="14">
         <v>5.4638929999999997</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P15" s="14">
         <v>5.0934699999999999</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q15" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="15" spans="8:22" x14ac:dyDescent="0.35">
-      <c r="I15" t="s">
-        <v>588</v>
-      </c>
-      <c r="K15" s="12">
-        <v>5.4057740000000001</v>
-      </c>
-      <c r="L15" s="16">
-        <v>7.6163400000000001</v>
-      </c>
-      <c r="M15" s="12">
-        <v>4.3369090000000003</v>
-      </c>
-      <c r="N15" s="16">
-        <v>5.8291069999999996</v>
-      </c>
-      <c r="O15" s="12">
-        <v>3.2369050000000001</v>
-      </c>
-      <c r="P15" s="16">
-        <v>4.291474</v>
       </c>
     </row>
     <row r="16" spans="8:22" x14ac:dyDescent="0.35">
       <c r="I16" t="s">
+        <v>588</v>
+      </c>
+      <c r="K16" s="11">
+        <v>5.4057740000000001</v>
+      </c>
+      <c r="L16" s="15">
+        <v>7.6163400000000001</v>
+      </c>
+      <c r="M16" s="11">
+        <v>4.3369090000000003</v>
+      </c>
+      <c r="N16" s="15">
+        <v>5.8291069999999996</v>
+      </c>
+      <c r="O16" s="11">
+        <v>3.2369050000000001</v>
+      </c>
+      <c r="P16" s="15">
+        <v>4.291474</v>
+      </c>
+    </row>
+    <row r="17" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
         <v>589</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K17" s="11">
         <v>5.9582610000000003</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L17" s="11">
         <v>7.656339</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="11">
         <v>4.5040079999999998</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N17" s="11">
         <v>5.9440749999999998</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O17" s="11">
         <v>3.3588460000000002</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P17" s="11">
         <v>4.3810200000000004</v>
       </c>
     </row>
-    <row r="17" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="I17" s="10" t="s">
+    <row r="18" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="I18" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="15">
+      <c r="J18" s="10"/>
+      <c r="K18" s="14">
         <v>10.138339999999999</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L18" s="14">
         <v>11.06123</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M18" s="14">
         <v>7.387079</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N18" s="14">
         <v>7.043361</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O18" s="14">
         <v>5.4638929999999997</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P18" s="14">
         <v>5.0934699999999999</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q18" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="18" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="I18" t="s">
+      <c r="X18" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="19" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
         <v>591</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K19" s="11">
         <v>5.4057740000000001</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L19" s="15">
         <v>7.6163400000000001</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M19" s="11">
         <v>4.3369090000000003</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N19" s="15">
         <v>5.8291069999999996</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O19" s="11">
         <v>3.2369050000000001</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P19" s="15">
         <v>4.291474</v>
       </c>
     </row>
-    <row r="19" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="I19" t="s">
+    <row r="20" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
         <v>592</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K20" s="11">
         <v>5.9582610000000003</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L20" s="11">
         <v>7.656339</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M20" s="11">
         <v>4.5040079999999998</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N20" s="11">
         <v>5.9440749999999998</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O20" s="11">
         <v>3.3588460000000002</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P20" s="11">
         <v>4.3810200000000004</v>
       </c>
-    </row>
-    <row r="22" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="X20" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="Y21" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="22" spans="8:35" x14ac:dyDescent="0.35">
       <c r="K22" t="s">
         <v>576</v>
       </c>
@@ -24016,10 +24118,26 @@
         <v>614</v>
       </c>
       <c r="X22" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="23" spans="8:25" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+      <c r="Y22" s="27" t="str">
+        <f>ROUND(O11,2)&amp;"%"</f>
+        <v>5,46%</v>
+      </c>
+      <c r="Z22" s="27" t="str">
+        <f>ROUND(P11,2)&amp;"%"</f>
+        <v>5,09%</v>
+      </c>
+      <c r="AA22" s="27" t="str">
+        <f>ROUND(O28,2)&amp;"%"</f>
+        <v>1,08%</v>
+      </c>
+      <c r="AB22" s="27" t="str">
+        <f>ROUND(P28,2)&amp;"%"</f>
+        <v>1,48%</v>
+      </c>
+    </row>
+    <row r="23" spans="8:35" x14ac:dyDescent="0.35">
       <c r="K23" t="s">
         <v>578</v>
       </c>
@@ -24038,433 +24156,909 @@
       <c r="P23" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="24" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="X23" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y23" s="27" t="str">
+        <f>ROUND(O12,2)&amp;"%"</f>
+        <v>3,19%</v>
+      </c>
+      <c r="Z23" s="27" t="str">
+        <f>ROUND(P12,2)&amp;"%"</f>
+        <v>4,32%</v>
+      </c>
+      <c r="AA23" s="27" t="str">
+        <f>ROUND(O29,2)&amp;"%"</f>
+        <v>0,59%</v>
+      </c>
+      <c r="AB23" s="27" t="str">
+        <f>ROUND(P29,2)&amp;"%"</f>
+        <v>0,91%</v>
+      </c>
+    </row>
+    <row r="24" spans="8:35" x14ac:dyDescent="0.35">
       <c r="I24" t="s">
+        <v>615</v>
+      </c>
+      <c r="K24" s="18">
+        <v>6.6295580000000007E-2</v>
+      </c>
+      <c r="L24" s="12">
+        <v>9.8374290000000003E-2</v>
+      </c>
+      <c r="M24" s="18">
+        <v>4.8804380000000001E-2</v>
+      </c>
+      <c r="N24" s="12">
+        <v>7.0079680000000005E-2</v>
+      </c>
+      <c r="O24" s="18">
+        <v>1.048171</v>
+      </c>
+      <c r="P24" s="12">
+        <v>1.5017780000000001</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>619</v>
+      </c>
+      <c r="R24" t="s">
+        <v>620</v>
+      </c>
+      <c r="X24" t="s">
         <v>623</v>
       </c>
-      <c r="K24" s="19">
-        <v>6.6295580000000007E-2</v>
-      </c>
-      <c r="L24" s="13">
-        <v>9.8374290000000003E-2</v>
-      </c>
-      <c r="M24" s="19">
-        <v>4.8804380000000001E-2</v>
-      </c>
-      <c r="N24" s="13">
-        <v>7.0079680000000005E-2</v>
-      </c>
-      <c r="O24" s="19">
-        <v>1.048171</v>
-      </c>
-      <c r="P24" s="13">
-        <v>1.5017780000000001</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>628</v>
-      </c>
-      <c r="R24" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="25" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="Y24" s="27" t="str">
+        <f>ROUND(O13,2)&amp;"%"</f>
+        <v>3,39%</v>
+      </c>
+      <c r="Z24" s="27" t="str">
+        <f>ROUND(P13,2)&amp;"%"</f>
+        <v>4,34%</v>
+      </c>
+      <c r="AA24" s="27" t="str">
+        <f>ROUND(O30,2)&amp;"%"</f>
+        <v>0,81%</v>
+      </c>
+      <c r="AB24" s="27" t="str">
+        <f>ROUND(P30,2)&amp;"%"</f>
+        <v>1,08%</v>
+      </c>
+    </row>
+    <row r="25" spans="8:35" x14ac:dyDescent="0.35">
       <c r="I25" t="s">
+        <v>616</v>
+      </c>
+      <c r="K25" s="12">
+        <v>3.6495979999999997E-2</v>
+      </c>
+      <c r="L25" s="12">
+        <v>5.9897640000000002E-2</v>
+      </c>
+      <c r="M25" s="12">
+        <v>2.8393020000000001E-2</v>
+      </c>
+      <c r="N25" s="12">
+        <v>4.3121090000000001E-2</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0.61500900000000003</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0.93870880000000001</v>
+      </c>
+      <c r="X25" t="s">
         <v>624</v>
       </c>
-      <c r="K25" s="13">
-        <v>3.6495979999999997E-2</v>
-      </c>
-      <c r="L25" s="13">
-        <v>5.9897640000000002E-2</v>
-      </c>
-      <c r="M25" s="13">
-        <v>2.8393020000000001E-2</v>
-      </c>
-      <c r="N25" s="13">
-        <v>4.3121090000000001E-2</v>
-      </c>
-      <c r="O25" s="13">
-        <v>0.61500900000000003</v>
-      </c>
-      <c r="P25" s="13">
-        <v>0.93870880000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="8:25" x14ac:dyDescent="0.35">
+      <c r="Y25" s="27" t="str">
+        <f>ROUND(O14,2)&amp;"%"</f>
+        <v>3,33%</v>
+      </c>
+      <c r="Z25" s="27" t="str">
+        <f>ROUND(P14,2)&amp;"%"</f>
+        <v>4,1%</v>
+      </c>
+      <c r="AA25" s="27" t="str">
+        <f>ROUND(O31,2)&amp;"%"</f>
+        <v>0,73%</v>
+      </c>
+      <c r="AB25" s="27" t="str">
+        <f>ROUND(P31,2)&amp;"%"</f>
+        <v>0,85%</v>
+      </c>
+    </row>
+    <row r="26" spans="8:35" x14ac:dyDescent="0.35">
       <c r="I26" t="s">
+        <v>617</v>
+      </c>
+      <c r="K26" s="12">
+        <v>5.0724129999999999E-2</v>
+      </c>
+      <c r="L26" s="12">
+        <v>6.4122650000000003E-2</v>
+      </c>
+      <c r="M26" s="12">
+        <v>3.893112E-2</v>
+      </c>
+      <c r="N26" s="12">
+        <v>5.13068E-2</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0.83906159999999996</v>
+      </c>
+      <c r="P26" s="12">
+        <v>1.1120433000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>618</v>
+      </c>
+      <c r="K27" s="23">
+        <v>5.0135369999999999E-2</v>
+      </c>
+      <c r="L27" s="23">
+        <v>5.4280870000000002E-2</v>
+      </c>
+      <c r="M27" s="23">
+        <v>3.5086409999999998E-2</v>
+      </c>
+      <c r="N27" s="23">
+        <v>4.0220220000000001E-2</v>
+      </c>
+      <c r="O27" s="23">
+        <v>0.75690360000000001</v>
+      </c>
+      <c r="P27" s="23">
+        <v>0.86743199999999998</v>
+      </c>
+      <c r="X27" t="s">
         <v>625</v>
       </c>
-      <c r="K26" s="13">
-        <v>5.0724129999999999E-2</v>
-      </c>
-      <c r="L26" s="13">
-        <v>6.4122650000000003E-2</v>
-      </c>
-      <c r="M26" s="13">
-        <v>3.893112E-2</v>
-      </c>
-      <c r="N26" s="13">
-        <v>5.13068E-2</v>
-      </c>
-      <c r="O26" s="13">
-        <v>0.83906159999999996</v>
-      </c>
-      <c r="P26" s="13">
-        <v>1.1120433000000001</v>
-      </c>
-      <c r="X26" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="27" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="I27" t="s">
+      <c r="Y27" t="s">
         <v>626</v>
       </c>
-      <c r="K27" s="24">
-        <v>5.0135369999999999E-2</v>
-      </c>
-      <c r="L27" s="24">
-        <v>5.4280870000000002E-2</v>
-      </c>
-      <c r="M27" s="24">
-        <v>3.5086409999999998E-2</v>
-      </c>
-      <c r="N27" s="24">
-        <v>4.0220220000000001E-2</v>
-      </c>
-      <c r="O27" s="24">
-        <v>0.75690360000000001</v>
-      </c>
-      <c r="P27" s="24">
-        <v>0.86743199999999998</v>
-      </c>
-      <c r="X27" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y27" s="18"/>
-    </row>
-    <row r="28" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="H28" s="23"/>
+      <c r="AA27" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>626</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="H28" s="22"/>
       <c r="I28" s="10" t="s">
         <v>602</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>6.7389569999999996E-2</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="19">
         <v>9.6357360000000003E-2</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="13">
         <v>5.007342E-2</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="19">
         <v>6.8928249999999996E-2</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="13">
         <v>1.0766389999999999</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="19">
         <v>1.4784839999999999</v>
       </c>
       <c r="Q28" t="s">
         <v>598</v>
       </c>
-      <c r="U28" s="23"/>
-      <c r="X28" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="Y28" s="18"/>
-    </row>
-    <row r="29" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="H29" s="23"/>
+      <c r="U28" s="22"/>
+      <c r="Y28" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>628</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>629</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>628</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="H29" s="22"/>
       <c r="I29" t="s">
         <v>603</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <v>3.5456799999999997E-2</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="20">
         <v>5.7688940000000001E-2</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="20">
         <v>2.732362E-2</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="20">
         <v>4.1704409999999997E-2</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="20">
         <v>0.59215430000000002</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="20">
         <v>0.90730739999999999</v>
       </c>
-      <c r="U29" s="23"/>
-      <c r="X29" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="Y29" s="18"/>
-    </row>
-    <row r="30" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="H30" s="23"/>
+      <c r="U29" s="22"/>
+      <c r="X29" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y29" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE29" s="29">
+        <f>K11</f>
+        <v>10.138339999999999</v>
+      </c>
+      <c r="AF29" s="29">
+        <f>L11</f>
+        <v>11.06123</v>
+      </c>
+      <c r="AG29" s="29">
+        <f>K28</f>
+        <v>6.7389569999999996E-2</v>
+      </c>
+      <c r="AH29" s="29">
+        <f>L28</f>
+        <v>9.6357360000000003E-2</v>
+      </c>
+      <c r="AI29" s="29"/>
+    </row>
+    <row r="30" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="H30" s="22"/>
       <c r="I30" t="s">
         <v>604</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>4.9312519999999999E-2</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="21">
         <v>6.2136660000000003E-2</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="21">
         <v>3.7580210000000003E-2</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="21">
         <v>4.9575040000000001E-2</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="21">
         <v>0.81035729999999995</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="21">
         <v>1.0750708</v>
       </c>
-      <c r="U30" s="23"/>
+      <c r="U30" s="22"/>
       <c r="X30" t="s">
-        <v>618</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="31" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="I31" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y30" s="25">
+        <f>K12/$K$11</f>
+        <v>0.52881280367397432</v>
+      </c>
+      <c r="Z30" s="25">
+        <f>L12/$L$11</f>
+        <v>0.69126471468362927</v>
+      </c>
+      <c r="AA30" s="25">
+        <f>K29/$K$28</f>
+        <v>0.5261467019302839</v>
+      </c>
+      <c r="AB30" s="25">
+        <f>L29/$L$28</f>
+        <v>0.59869780575142362</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE30" s="29">
+        <f t="shared" ref="AE30:AF30" si="0">K12</f>
+        <v>5.3612840000000004</v>
+      </c>
+      <c r="AF30" s="29">
+        <f t="shared" si="0"/>
+        <v>7.6462380000000003</v>
+      </c>
+      <c r="AG30" s="29">
+        <f t="shared" ref="AG30:AG32" si="1">K29</f>
+        <v>3.5456799999999997E-2</v>
+      </c>
+      <c r="AH30" s="29">
+        <f t="shared" ref="AH30:AH32" si="2">L29</f>
+        <v>5.7688940000000001E-2</v>
+      </c>
+      <c r="AI30" s="29"/>
+    </row>
+    <row r="31" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>621</v>
+      </c>
+      <c r="K31" s="24">
+        <v>4.8549160000000001E-2</v>
+      </c>
+      <c r="L31" s="24">
+        <v>5.3747389999999999E-2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>3.3600360000000003E-2</v>
+      </c>
+      <c r="N31" s="24">
+        <v>3.9196839999999997E-2</v>
+      </c>
+      <c r="O31" s="24">
+        <v>0.72549490000000005</v>
+      </c>
+      <c r="P31" s="24">
+        <v>0.84613229999999995</v>
+      </c>
+      <c r="X31" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y31" s="25">
+        <f>K13/$K$11</f>
+        <v>0.58889384258172439</v>
+      </c>
+      <c r="Z31" s="25">
+        <f>L13/$L$11</f>
+        <v>0.69002561197986123</v>
+      </c>
+      <c r="AA31" s="25">
+        <f>K30/$K$28</f>
+        <v>0.7317529997594584</v>
+      </c>
+      <c r="AB31" s="25">
+        <f>L30/$L$28</f>
+        <v>0.64485639706193698</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE31" s="29">
+        <f t="shared" ref="AE31:AF31" si="3">K13</f>
+        <v>5.9704059999999997</v>
+      </c>
+      <c r="AF31" s="29">
+        <f t="shared" si="3"/>
+        <v>7.6325320000000003</v>
+      </c>
+      <c r="AG31" s="29">
+        <f t="shared" si="1"/>
+        <v>4.9312519999999999E-2</v>
+      </c>
+      <c r="AH31" s="29">
+        <f t="shared" si="2"/>
+        <v>6.2136660000000003E-2</v>
+      </c>
+      <c r="AI31" s="29"/>
+    </row>
+    <row r="32" spans="8:35" x14ac:dyDescent="0.35">
+      <c r="I32" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="14">
+      <c r="J32" s="10"/>
+      <c r="K32" s="13">
         <v>6.7389569999999996E-2</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L32" s="19">
         <v>9.6357360000000003E-2</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M32" s="13">
         <v>5.007342E-2</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N32" s="19">
         <v>6.8928249999999996E-2</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O32" s="13">
         <v>1.0766389999999999</v>
       </c>
-      <c r="P31" s="20">
+      <c r="P32" s="19">
         <v>1.4784839999999999</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q32" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="32" spans="8:25" x14ac:dyDescent="0.35">
-      <c r="I32" t="s">
+      <c r="X32" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y32" s="25">
+        <f>K14/$K$11</f>
+        <v>0.73776663635269679</v>
+      </c>
+      <c r="Z32" s="25">
+        <f>L14/$L$11</f>
+        <v>0.67864785381010972</v>
+      </c>
+      <c r="AA32" s="25">
+        <f>K31/$K$28</f>
+        <v>0.72042543081963584</v>
+      </c>
+      <c r="AB32" s="25">
+        <f>L31/$L$28</f>
+        <v>0.55779226413010896</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE32" s="29">
+        <f t="shared" ref="AE32:AF32" si="4">K14</f>
+        <v>7.4797289999999998</v>
+      </c>
+      <c r="AF32" s="29">
+        <f t="shared" si="4"/>
+        <v>7.5066800000000002</v>
+      </c>
+      <c r="AG32" s="29">
+        <f t="shared" si="1"/>
+        <v>4.8549160000000001E-2</v>
+      </c>
+      <c r="AH32" s="29">
+        <f t="shared" si="2"/>
+        <v>5.3747389999999999E-2</v>
+      </c>
+      <c r="AI32" s="29"/>
+    </row>
+    <row r="33" spans="9:32" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
         <v>606</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K33" s="12">
         <v>0.10952291</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L33" s="12">
         <v>6.3788289999999997E-2</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M33" s="12">
         <v>4.4270120000000003E-2</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N33" s="12">
         <v>4.4905760000000003E-2</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O33" s="12">
         <v>0.96270840000000002</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P33" s="12">
         <v>0.97586759999999995</v>
       </c>
     </row>
-    <row r="33" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I33" t="s">
+    <row r="34" spans="9:32" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
         <v>607</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K34" s="12">
         <v>5.2181999999999999E-2</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L34" s="12">
         <v>6.6322430000000002E-2</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M34" s="12">
         <v>3.865532E-2</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N34" s="12">
         <v>5.1502010000000001E-2</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O34" s="12">
         <v>0.83366150000000006</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P34" s="12">
         <v>1.1166924</v>
       </c>
-    </row>
-    <row r="34" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I34" t="s">
+      <c r="X34" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="35" spans="9:32" x14ac:dyDescent="0.35">
+      <c r="Y35" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="36" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+    </row>
+    <row r="36" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I36" s="10" t="s">
         <v>608</v>
       </c>
       <c r="J36" s="10"/>
-      <c r="K36" s="14">
+      <c r="K36" s="13">
         <v>7.3945249999999998</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="13">
         <v>10.177414000000001</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="13">
         <v>5.3058959999999997</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="13">
         <v>7.203055</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="13">
         <v>5.0400410000000004</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="13">
         <v>6.8124219999999998</v>
       </c>
       <c r="Q36" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="37" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="Y36" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="AF36" s="28"/>
+    </row>
+    <row r="37" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I37" t="s">
         <v>609</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="12">
         <v>3.7484489999999999</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="12">
         <v>5.9246020000000001</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="12">
         <v>2.8394059999999999</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="12">
         <v>4.3051529999999998</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="12">
         <v>2.7975469999999998</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="12">
         <v>4.2833860000000001</v>
       </c>
-    </row>
-    <row r="38" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="Y37" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>580</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>625</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>625</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I38" t="s">
         <v>610</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <v>3.7453059999999998</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="12">
         <v>5.4190430000000003</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="12">
         <v>2.8651089999999999</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="12">
         <v>3.8482769999999999</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="12">
         <v>2.8197679999999998</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="12">
         <v>3.8382869999999998</v>
       </c>
-    </row>
-    <row r="39" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="X38" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y38" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="27" t="str">
+        <f>ROUND(O11,2)&amp;"%"</f>
+        <v>5,46%</v>
+      </c>
+      <c r="AA38" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="27" t="str">
+        <f>ROUND(P11,2)&amp;"%"</f>
+        <v>5,09%</v>
+      </c>
+      <c r="AC38" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="27" t="str">
+        <f>ROUND(O28,2)&amp;"%"</f>
+        <v>1,08%</v>
+      </c>
+      <c r="AE38" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="27" t="str">
+        <f>ROUND(P28,2)&amp;"%"</f>
+        <v>1,48%</v>
+      </c>
+    </row>
+    <row r="39" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I39" s="10" t="s">
         <v>611</v>
       </c>
       <c r="J39" s="10"/>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <v>7.3865740000000004</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="13">
         <v>10.201127</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="13">
         <v>5.272157</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <v>7.1923769999999996</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="13">
         <v>4.9960110000000002</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="13">
         <v>6.7898480000000001</v>
       </c>
       <c r="Q39" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="40" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="X39" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y39" s="25">
+        <v>0.52881280367397432</v>
+      </c>
+      <c r="Z39" s="27" t="str">
+        <f t="shared" ref="Z39:Z41" si="5">ROUND(O12,2)&amp;"%"</f>
+        <v>3,19%</v>
+      </c>
+      <c r="AA39" s="25">
+        <v>0.69126471468362927</v>
+      </c>
+      <c r="AB39" s="27" t="str">
+        <f t="shared" ref="AB39:AB41" si="6">ROUND(P12,2)&amp;"%"</f>
+        <v>4,32%</v>
+      </c>
+      <c r="AC39" s="25">
+        <v>0.5261467019302839</v>
+      </c>
+      <c r="AD39" s="27" t="str">
+        <f t="shared" ref="AD39:AD41" si="7">ROUND(O29,2)&amp;"%"</f>
+        <v>0,59%</v>
+      </c>
+      <c r="AE39" s="25">
+        <v>0.59869780575142362</v>
+      </c>
+      <c r="AF39" s="27" t="str">
+        <f t="shared" ref="AF39:AF41" si="8">ROUND(P29,2)&amp;"%"</f>
+        <v>0,91%</v>
+      </c>
+    </row>
+    <row r="40" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I40" t="s">
         <v>612</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <v>3.8589190000000002</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="12">
         <v>5.7759210000000003</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="12">
         <v>2.9577749999999998</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="12">
         <v>4.1816709999999997</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="12">
         <v>2.9247450000000002</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="12">
         <v>4.1689720000000001</v>
       </c>
-    </row>
-    <row r="41" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="X40" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y40" s="25">
+        <v>0.58889384258172439</v>
+      </c>
+      <c r="Z40" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>3,39%</v>
+      </c>
+      <c r="AA40" s="25">
+        <v>0.69002561197986123</v>
+      </c>
+      <c r="AB40" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>4,34%</v>
+      </c>
+      <c r="AC40" s="25">
+        <v>0.7317529997594584</v>
+      </c>
+      <c r="AD40" s="27" t="str">
+        <f t="shared" si="7"/>
+        <v>0,81%</v>
+      </c>
+      <c r="AE40" s="25">
+        <v>0.64485639706193698</v>
+      </c>
+      <c r="AF40" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>1,08%</v>
+      </c>
+    </row>
+    <row r="41" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I41" t="s">
         <v>613</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="12">
         <v>3.8382070000000001</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="12">
         <v>5.5115879999999997</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="12">
         <v>2.981779</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="12">
         <v>4.1152639999999998</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="12">
         <v>2.9371160000000001</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="12">
         <v>4.1176490000000001</v>
       </c>
+      <c r="X41" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y41" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>3,33%</v>
+      </c>
+      <c r="AA41" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>4,1%</v>
+      </c>
+      <c r="AC41" s="25">
+        <v>0.72042543081963584</v>
+      </c>
+      <c r="AD41" s="27" t="str">
+        <f t="shared" si="7"/>
+        <v>0,73%</v>
+      </c>
+      <c r="AE41" s="25">
+        <v>0.55779226413010896</v>
+      </c>
+      <c r="AF41" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>0,85%</v>
+      </c>
+    </row>
+    <row r="45" spans="9:32" x14ac:dyDescent="0.35">
+      <c r="X45" s="30"/>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="9:32" x14ac:dyDescent="0.35">
+      <c r="X46" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="47" spans="9:32" x14ac:dyDescent="0.35">
+      <c r="X47" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="9:32" x14ac:dyDescent="0.35">
+      <c r="X48" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>641</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Data Info/DadosEscolhidos.xlsx
+++ b/Data Info/DadosEscolhidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/GitHub/gdp-forecasting-with-ML/Data Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2401" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BE02FB7-C322-49F9-A54B-FB93B901241F}"/>
+  <xr:revisionPtr revIDLastSave="2552" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF44AD6-27A0-4765-AB12-E367BA1FBCF2}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Official Series - Quarterly" sheetId="7" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Table M" sheetId="10" r:id="rId4"/>
     <sheet name="All Series" sheetId="1" state="hidden" r:id="rId5"/>
     <sheet name="All Series (2)" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Planilha1" sheetId="11" r:id="rId7"/>
-    <sheet name="exports_SAseries" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="Results" sheetId="12" r:id="rId7"/>
+    <sheet name="Results - test" sheetId="11" r:id="rId8"/>
+    <sheet name="exports_SAseries" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Official Series - Quarterly'!$A$1:$J$101</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6358" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6471" uniqueCount="659">
   <si>
     <t>NSAprod_cam_br</t>
   </si>
@@ -2009,6 +2010,57 @@
   <si>
     <t>"2.155552e-07***"</t>
   </si>
+  <si>
+    <t>"0.0218072228*"</t>
+  </si>
+  <si>
+    <t>"0.2291410844"</t>
+  </si>
+  <si>
+    <t>"0.0281022508*"</t>
+  </si>
+  <si>
+    <t>"0.2185918042"</t>
+  </si>
+  <si>
+    <t>"0.0063982168**"</t>
+  </si>
+  <si>
+    <t>"0.1579516395"</t>
+  </si>
+  <si>
+    <t>benchmarkq</t>
+  </si>
+  <si>
+    <t>lasso_modelq</t>
+  </si>
+  <si>
+    <t>enet_modelq</t>
+  </si>
+  <si>
+    <t>rf_modelq</t>
+  </si>
+  <si>
+    <t>Diebold-Mariano</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h = 1 </t>
+  </si>
+  <si>
+    <t>h = 12</t>
+  </si>
+  <si>
+    <t>h = 4</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPE (%) </t>
+  </si>
 </sst>
 </file>
 
@@ -2017,10 +2069,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2080,8 +2132,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2124,8 +2183,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2142,13 +2207,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2208,20 +2282,65 @@
     <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -23627,11 +23746,913 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540FB65C-DB34-4596-B31F-FC859CCB543C}">
+  <dimension ref="B2:R40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="105" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="0.453125" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I2" t="s">
+        <v>656</v>
+      </c>
+      <c r="P2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F3" t="s">
+        <v>580</v>
+      </c>
+      <c r="G3" t="s">
+        <v>578</v>
+      </c>
+      <c r="H3" t="s">
+        <v>579</v>
+      </c>
+      <c r="I3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="14">
+        <v>10.138339999999999</v>
+      </c>
+      <c r="E4" s="14">
+        <v>7.387079</v>
+      </c>
+      <c r="F4" s="14">
+        <v>5.4638929999999997</v>
+      </c>
+      <c r="G4" s="14">
+        <v>11.06123</v>
+      </c>
+      <c r="H4" s="14">
+        <v>7.043361</v>
+      </c>
+      <c r="I4" s="14">
+        <v>5.0934699999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>595</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D5" s="32">
+        <v>5.3612840000000004</v>
+      </c>
+      <c r="E5" s="32">
+        <v>4.273517</v>
+      </c>
+      <c r="F5" s="32">
+        <v>3.1899090000000001</v>
+      </c>
+      <c r="G5" s="31">
+        <v>7.6462380000000003</v>
+      </c>
+      <c r="H5" s="31">
+        <v>5.8681039999999998</v>
+      </c>
+      <c r="I5" s="31">
+        <v>4.3203310000000004</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>636</v>
+      </c>
+      <c r="R5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5.9704059999999997</v>
+      </c>
+      <c r="E6" s="31">
+        <v>4.5451629999999996</v>
+      </c>
+      <c r="F6" s="31">
+        <v>3.3889990000000001</v>
+      </c>
+      <c r="G6" s="31">
+        <v>7.6325320000000003</v>
+      </c>
+      <c r="H6" s="31">
+        <v>5.8982469999999996</v>
+      </c>
+      <c r="I6" s="31">
+        <v>4.3434660000000003</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>638</v>
+      </c>
+      <c r="R6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D7" s="11">
+        <v>7.4797289999999998</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4.6017210000000004</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3.3251400000000002</v>
+      </c>
+      <c r="G7" s="32">
+        <v>7.5066800000000002</v>
+      </c>
+      <c r="H7" s="32">
+        <v>5.5938590000000001</v>
+      </c>
+      <c r="I7" s="32">
+        <v>4.095269</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>640</v>
+      </c>
+      <c r="R7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" t="s">
+        <v>579</v>
+      </c>
+      <c r="F9" t="s">
+        <v>580</v>
+      </c>
+      <c r="G9" t="s">
+        <v>578</v>
+      </c>
+      <c r="H9" t="s">
+        <v>579</v>
+      </c>
+      <c r="I9" t="s">
+        <v>580</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>654</v>
+      </c>
+      <c r="E10" t="s">
+        <v>654</v>
+      </c>
+      <c r="F10" t="s">
+        <v>654</v>
+      </c>
+      <c r="G10" t="s">
+        <v>655</v>
+      </c>
+      <c r="H10" t="s">
+        <v>655</v>
+      </c>
+      <c r="I10" t="s">
+        <v>655</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>642</v>
+      </c>
+      <c r="R10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D11" s="33">
+        <v>6.7389569999999996E-2</v>
+      </c>
+      <c r="E11" s="33">
+        <v>5.007342E-2</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1.0766389999999999</v>
+      </c>
+      <c r="G11" s="33">
+        <v>9.6357360000000003E-2</v>
+      </c>
+      <c r="H11" s="33">
+        <v>6.8928249999999996E-2</v>
+      </c>
+      <c r="I11" s="33">
+        <v>1.4784839999999999</v>
+      </c>
+      <c r="J11" t="s">
+        <v>598</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>644</v>
+      </c>
+      <c r="R11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D12" s="36">
+        <v>3.5456799999999997E-2</v>
+      </c>
+      <c r="E12" s="36">
+        <v>2.732362E-2</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0.59215430000000002</v>
+      </c>
+      <c r="G12" s="34">
+        <v>5.7688940000000001E-2</v>
+      </c>
+      <c r="H12" s="34">
+        <v>4.1704409999999997E-2</v>
+      </c>
+      <c r="I12" s="34">
+        <v>0.90730739999999999</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>646</v>
+      </c>
+      <c r="R12" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D13" s="34">
+        <v>4.9312519999999999E-2</v>
+      </c>
+      <c r="E13" s="34">
+        <v>3.7580210000000003E-2</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.81035729999999995</v>
+      </c>
+      <c r="G13" s="34">
+        <v>6.2136660000000003E-2</v>
+      </c>
+      <c r="H13" s="34">
+        <v>4.9575040000000001E-2</v>
+      </c>
+      <c r="I13" s="34">
+        <v>1.0750708</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>618</v>
+      </c>
+      <c r="D14" s="35">
+        <v>4.8549160000000001E-2</v>
+      </c>
+      <c r="E14" s="35">
+        <v>3.3600360000000003E-2</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.72549490000000005</v>
+      </c>
+      <c r="G14" s="37">
+        <v>5.3747389999999999E-2</v>
+      </c>
+      <c r="H14" s="37">
+        <v>3.9196839999999997E-2</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0.84613229999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>627</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="F19" s="48" t="s">
+        <v>626</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="I19" t="s">
+        <v>625</v>
+      </c>
+      <c r="J19" t="s">
+        <v>627</v>
+      </c>
+      <c r="L19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>657</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="45">
+        <v>12</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45">
+        <v>1</v>
+      </c>
+      <c r="G20" s="45">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>628</v>
+      </c>
+      <c r="K20" t="s">
+        <v>630</v>
+      </c>
+      <c r="L20" t="s">
+        <v>628</v>
+      </c>
+      <c r="M20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="41">
+        <f>ROUND(F11,2)</f>
+        <v>1.08</v>
+      </c>
+      <c r="D21" s="44" t="str">
+        <f>ROUND(I11,2)&amp;"%"</f>
+        <v>1,48%</v>
+      </c>
+      <c r="F21" s="44" t="str">
+        <f>ROUND(F4,2)&amp;"%"</f>
+        <v>5,46%</v>
+      </c>
+      <c r="G21" s="44" t="str">
+        <f>ROUND(I4,2)&amp;"%"</f>
+        <v>5,09%</v>
+      </c>
+      <c r="I21" t="s">
+        <v>631</v>
+      </c>
+      <c r="J21" s="25">
+        <v>1</v>
+      </c>
+      <c r="K21" s="25">
+        <v>1</v>
+      </c>
+      <c r="L21" s="25">
+        <v>1</v>
+      </c>
+      <c r="M21" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="42" t="s">
+        <v>622</v>
+      </c>
+      <c r="C22" s="43">
+        <f>ROUND(F12,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="D22" s="44" t="str">
+        <f>ROUND(I12,2)&amp;"%"</f>
+        <v>0,91%</v>
+      </c>
+      <c r="F22" s="43" t="str">
+        <f>ROUND(F5,2)&amp;"%"</f>
+        <v>3,19%</v>
+      </c>
+      <c r="G22" s="44" t="str">
+        <f>ROUND(I5,2)&amp;"%"</f>
+        <v>4,32%</v>
+      </c>
+      <c r="I22" t="s">
+        <v>622</v>
+      </c>
+      <c r="J22" s="40">
+        <f>D12/$D$11</f>
+        <v>0.5261467019302839</v>
+      </c>
+      <c r="K22" s="25">
+        <f>G12/$G$11</f>
+        <v>0.59869780575142362</v>
+      </c>
+      <c r="L22" s="40">
+        <f>D5/$D$4</f>
+        <v>0.52881280367397432</v>
+      </c>
+      <c r="M22" s="25">
+        <f>G5/$G$4</f>
+        <v>0.69126471468362927</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="42" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" s="44">
+        <f>ROUND(F13,2)</f>
+        <v>0.81</v>
+      </c>
+      <c r="D23" s="44" t="str">
+        <f>ROUND(I13,2)&amp;"%"</f>
+        <v>1,08%</v>
+      </c>
+      <c r="F23" s="44" t="str">
+        <f>ROUND(F6,2)&amp;"%"</f>
+        <v>3,39%</v>
+      </c>
+      <c r="G23" s="44" t="str">
+        <f>ROUND(I6,2)&amp;"%"</f>
+        <v>4,34%</v>
+      </c>
+      <c r="I23" t="s">
+        <v>623</v>
+      </c>
+      <c r="J23" s="25">
+        <f>D13/$D$11</f>
+        <v>0.7317529997594584</v>
+      </c>
+      <c r="K23" s="25">
+        <f>G13/$G$11</f>
+        <v>0.64485639706193698</v>
+      </c>
+      <c r="L23" s="25">
+        <f>D6/$D$4</f>
+        <v>0.58889384258172439</v>
+      </c>
+      <c r="M23" s="25">
+        <f>G6/$G$4</f>
+        <v>0.69002561197986123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="45" t="s">
+        <v>624</v>
+      </c>
+      <c r="C24" s="46" t="str">
+        <f>ROUND(F14,2)&amp;"%"</f>
+        <v>0,73%</v>
+      </c>
+      <c r="D24" s="47" t="str">
+        <f>ROUND(I14,2)&amp;"%"</f>
+        <v>0,85%</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46" t="str">
+        <f>ROUND(F7,2)&amp;"%"</f>
+        <v>3,33%</v>
+      </c>
+      <c r="G24" s="47" t="str">
+        <f>ROUND(I7,2)&amp;"%"</f>
+        <v>4,1%</v>
+      </c>
+      <c r="I24" t="s">
+        <v>624</v>
+      </c>
+      <c r="J24" s="25">
+        <f>D14/$D$11</f>
+        <v>0.72042543081963584</v>
+      </c>
+      <c r="K24" s="40">
+        <f>G14/$G$11</f>
+        <v>0.55779226413010896</v>
+      </c>
+      <c r="L24" s="25">
+        <f>D7/$D$4</f>
+        <v>0.73776663635269679</v>
+      </c>
+      <c r="M24" s="40">
+        <f>G7/$G$4</f>
+        <v>0.67864785381010972</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C26" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="F26" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>628</v>
+      </c>
+      <c r="D27" t="s">
+        <v>630</v>
+      </c>
+      <c r="F27" t="s">
+        <v>628</v>
+      </c>
+      <c r="G27" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>631</v>
+      </c>
+      <c r="C28" s="27">
+        <f>D11</f>
+        <v>6.7389569999999996E-2</v>
+      </c>
+      <c r="D28" s="27">
+        <f>G11</f>
+        <v>9.6357360000000003E-2</v>
+      </c>
+      <c r="F28" s="27">
+        <f>D4</f>
+        <v>10.138339999999999</v>
+      </c>
+      <c r="G28" s="27">
+        <f>G4</f>
+        <v>11.06123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>622</v>
+      </c>
+      <c r="C29" s="39">
+        <f>D12</f>
+        <v>3.5456799999999997E-2</v>
+      </c>
+      <c r="D29" s="27">
+        <f>G12</f>
+        <v>5.7688940000000001E-2</v>
+      </c>
+      <c r="F29" s="39">
+        <f>D5</f>
+        <v>5.3612840000000004</v>
+      </c>
+      <c r="G29" s="27">
+        <f>G5</f>
+        <v>7.6462380000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>623</v>
+      </c>
+      <c r="C30" s="27">
+        <f>D13</f>
+        <v>4.9312519999999999E-2</v>
+      </c>
+      <c r="D30" s="27">
+        <f>G13</f>
+        <v>6.2136660000000003E-2</v>
+      </c>
+      <c r="F30" s="27">
+        <f>D6</f>
+        <v>5.9704059999999997</v>
+      </c>
+      <c r="G30" s="27">
+        <f>G6</f>
+        <v>7.6325320000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>624</v>
+      </c>
+      <c r="C31" s="27">
+        <f>D14</f>
+        <v>4.8549160000000001E-2</v>
+      </c>
+      <c r="D31" s="39">
+        <f>G14</f>
+        <v>5.3747389999999999E-2</v>
+      </c>
+      <c r="F31" s="27">
+        <f>D7</f>
+        <v>7.4797289999999998</v>
+      </c>
+      <c r="G31" s="39">
+        <f>G7</f>
+        <v>7.5066800000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C34" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C35" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>625</v>
+      </c>
+      <c r="D36" t="s">
+        <v>580</v>
+      </c>
+      <c r="E36" t="s">
+        <v>625</v>
+      </c>
+      <c r="F36" t="s">
+        <v>580</v>
+      </c>
+      <c r="G36" t="s">
+        <v>625</v>
+      </c>
+      <c r="H36" t="s">
+        <v>580</v>
+      </c>
+      <c r="I36" t="s">
+        <v>625</v>
+      </c>
+      <c r="J36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>631</v>
+      </c>
+      <c r="C37" s="25">
+        <v>1</v>
+      </c>
+      <c r="D37" s="26" t="str">
+        <f>ROUND(F4,2)&amp;"%"</f>
+        <v>5,46%</v>
+      </c>
+      <c r="E37" s="25">
+        <v>1</v>
+      </c>
+      <c r="F37" s="26" t="str">
+        <f>ROUND(I4,2)&amp;"%"</f>
+        <v>5,09%</v>
+      </c>
+      <c r="G37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="26" t="str">
+        <f>ROUND(F11,2)&amp;"%"</f>
+        <v>1,08%</v>
+      </c>
+      <c r="I37" s="25">
+        <v>1</v>
+      </c>
+      <c r="J37" s="26" t="str">
+        <f>ROUND(I11,2)&amp;"%"</f>
+        <v>1,48%</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>622</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.52881280367397432</v>
+      </c>
+      <c r="D38" s="26" t="str">
+        <f>ROUND(F5,2)&amp;"%"</f>
+        <v>3,19%</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.69126471468362927</v>
+      </c>
+      <c r="F38" s="26" t="str">
+        <f>ROUND(I5,2)&amp;"%"</f>
+        <v>4,32%</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0.5261467019302839</v>
+      </c>
+      <c r="H38" s="26" t="str">
+        <f>ROUND(F12,2)&amp;"%"</f>
+        <v>0,59%</v>
+      </c>
+      <c r="I38" s="25">
+        <v>0.59869780575142362</v>
+      </c>
+      <c r="J38" s="26" t="str">
+        <f>ROUND(I12,2)&amp;"%"</f>
+        <v>0,91%</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.58889384258172439</v>
+      </c>
+      <c r="D39" s="26" t="str">
+        <f>ROUND(F6,2)&amp;"%"</f>
+        <v>3,39%</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0.69002561197986123</v>
+      </c>
+      <c r="F39" s="26" t="str">
+        <f>ROUND(I6,2)&amp;"%"</f>
+        <v>4,34%</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0.7317529997594584</v>
+      </c>
+      <c r="H39" s="26" t="str">
+        <f>ROUND(F13,2)&amp;"%"</f>
+        <v>0,81%</v>
+      </c>
+      <c r="I39" s="25">
+        <v>0.64485639706193698</v>
+      </c>
+      <c r="J39" s="26" t="str">
+        <f>ROUND(I13,2)&amp;"%"</f>
+        <v>1,08%</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>624</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0</v>
+      </c>
+      <c r="D40" s="26" t="str">
+        <f>ROUND(F7,2)&amp;"%"</f>
+        <v>3,33%</v>
+      </c>
+      <c r="E40" s="25">
+        <v>0</v>
+      </c>
+      <c r="F40" s="26" t="str">
+        <f>ROUND(I7,2)&amp;"%"</f>
+        <v>4,1%</v>
+      </c>
+      <c r="G40" s="25">
+        <v>0.72042543081963584</v>
+      </c>
+      <c r="H40" s="26" t="str">
+        <f>ROUND(F14,2)&amp;"%"</f>
+        <v>0,73%</v>
+      </c>
+      <c r="I40" s="25">
+        <v>0.55779226413010896</v>
+      </c>
+      <c r="J40" s="26" t="str">
+        <f>ROUND(I14,2)&amp;"%"</f>
+        <v>0,85%</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3870FAA5-0C9A-4077-820D-651F982FFC52}">
-  <dimension ref="H3:AI48"/>
+  <dimension ref="H3:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView zoomScale="105" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23917,8 +24938,12 @@
       <c r="L14" s="11">
         <v>7.5066800000000002</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="M14" s="11">
+        <v>4.6017210000000004</v>
+      </c>
+      <c r="N14" s="11">
+        <v>5.5938590000000001</v>
+      </c>
       <c r="O14" s="11">
         <v>3.3251400000000002</v>
       </c>
@@ -24120,20 +25145,20 @@
       <c r="X22" t="s">
         <v>631</v>
       </c>
-      <c r="Y22" s="27" t="str">
-        <f>ROUND(O11,2)&amp;"%"</f>
+      <c r="Y22" s="26" t="str">
+        <f t="shared" ref="Y22:Z25" si="0">ROUND(O11,2)&amp;"%"</f>
         <v>5,46%</v>
       </c>
-      <c r="Z22" s="27" t="str">
-        <f>ROUND(P11,2)&amp;"%"</f>
+      <c r="Z22" s="26" t="str">
+        <f t="shared" si="0"/>
         <v>5,09%</v>
       </c>
-      <c r="AA22" s="27" t="str">
-        <f>ROUND(O28,2)&amp;"%"</f>
+      <c r="AA22" s="26" t="str">
+        <f t="shared" ref="AA22:AB25" si="1">ROUND(O28,2)&amp;"%"</f>
         <v>1,08%</v>
       </c>
-      <c r="AB22" s="27" t="str">
-        <f>ROUND(P28,2)&amp;"%"</f>
+      <c r="AB22" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>1,48%</v>
       </c>
     </row>
@@ -24159,20 +25184,20 @@
       <c r="X23" t="s">
         <v>622</v>
       </c>
-      <c r="Y23" s="27" t="str">
-        <f>ROUND(O12,2)&amp;"%"</f>
+      <c r="Y23" s="26" t="str">
+        <f t="shared" si="0"/>
         <v>3,19%</v>
       </c>
-      <c r="Z23" s="27" t="str">
-        <f>ROUND(P12,2)&amp;"%"</f>
+      <c r="Z23" s="26" t="str">
+        <f t="shared" si="0"/>
         <v>4,32%</v>
       </c>
-      <c r="AA23" s="27" t="str">
-        <f>ROUND(O29,2)&amp;"%"</f>
+      <c r="AA23" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>0,59%</v>
       </c>
-      <c r="AB23" s="27" t="str">
-        <f>ROUND(P29,2)&amp;"%"</f>
+      <c r="AB23" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>0,91%</v>
       </c>
     </row>
@@ -24207,20 +25232,20 @@
       <c r="X24" t="s">
         <v>623</v>
       </c>
-      <c r="Y24" s="27" t="str">
-        <f>ROUND(O13,2)&amp;"%"</f>
+      <c r="Y24" s="26" t="str">
+        <f t="shared" si="0"/>
         <v>3,39%</v>
       </c>
-      <c r="Z24" s="27" t="str">
-        <f>ROUND(P13,2)&amp;"%"</f>
+      <c r="Z24" s="26" t="str">
+        <f t="shared" si="0"/>
         <v>4,34%</v>
       </c>
-      <c r="AA24" s="27" t="str">
-        <f>ROUND(O30,2)&amp;"%"</f>
+      <c r="AA24" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>0,81%</v>
       </c>
-      <c r="AB24" s="27" t="str">
-        <f>ROUND(P30,2)&amp;"%"</f>
+      <c r="AB24" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>1,08%</v>
       </c>
     </row>
@@ -24249,20 +25274,20 @@
       <c r="X25" t="s">
         <v>624</v>
       </c>
-      <c r="Y25" s="27" t="str">
-        <f>ROUND(O14,2)&amp;"%"</f>
+      <c r="Y25" s="26" t="str">
+        <f t="shared" si="0"/>
         <v>3,33%</v>
       </c>
-      <c r="Z25" s="27" t="str">
-        <f>ROUND(P14,2)&amp;"%"</f>
+      <c r="Z25" s="26" t="str">
+        <f t="shared" si="0"/>
         <v>4,1%</v>
       </c>
-      <c r="AA25" s="27" t="str">
-        <f>ROUND(O31,2)&amp;"%"</f>
+      <c r="AA25" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>0,73%</v>
       </c>
-      <c r="AB25" s="27" t="str">
-        <f>ROUND(P31,2)&amp;"%"</f>
+      <c r="AB25" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>0,85%</v>
       </c>
     </row>
@@ -24425,23 +25450,23 @@
       <c r="AD29" t="s">
         <v>631</v>
       </c>
-      <c r="AE29" s="29">
+      <c r="AE29" s="27">
         <f>K11</f>
         <v>10.138339999999999</v>
       </c>
-      <c r="AF29" s="29">
+      <c r="AF29" s="27">
         <f>L11</f>
         <v>11.06123</v>
       </c>
-      <c r="AG29" s="29">
+      <c r="AG29" s="27">
         <f>K28</f>
         <v>6.7389569999999996E-2</v>
       </c>
-      <c r="AH29" s="29">
+      <c r="AH29" s="27">
         <f>L28</f>
         <v>9.6357360000000003E-2</v>
       </c>
-      <c r="AI29" s="29"/>
+      <c r="AI29" s="27"/>
     </row>
     <row r="30" spans="8:35" x14ac:dyDescent="0.35">
       <c r="H30" s="22"/>
@@ -24489,23 +25514,23 @@
       <c r="AD30" t="s">
         <v>622</v>
       </c>
-      <c r="AE30" s="29">
-        <f t="shared" ref="AE30:AF30" si="0">K12</f>
+      <c r="AE30" s="27">
+        <f t="shared" ref="AE30:AF30" si="2">K12</f>
         <v>5.3612840000000004</v>
       </c>
-      <c r="AF30" s="29">
-        <f t="shared" si="0"/>
+      <c r="AF30" s="27">
+        <f t="shared" si="2"/>
         <v>7.6462380000000003</v>
       </c>
-      <c r="AG30" s="29">
-        <f t="shared" ref="AG30:AG32" si="1">K29</f>
+      <c r="AG30" s="27">
+        <f t="shared" ref="AG30:AG32" si="3">K29</f>
         <v>3.5456799999999997E-2</v>
       </c>
-      <c r="AH30" s="29">
-        <f t="shared" ref="AH30:AH32" si="2">L29</f>
+      <c r="AH30" s="27">
+        <f t="shared" ref="AH30:AH32" si="4">L29</f>
         <v>5.7688940000000001E-2</v>
       </c>
-      <c r="AI30" s="29"/>
+      <c r="AI30" s="27"/>
     </row>
     <row r="31" spans="8:35" x14ac:dyDescent="0.35">
       <c r="I31" t="s">
@@ -24551,23 +25576,23 @@
       <c r="AD31" t="s">
         <v>623</v>
       </c>
-      <c r="AE31" s="29">
-        <f t="shared" ref="AE31:AF31" si="3">K13</f>
+      <c r="AE31" s="27">
+        <f t="shared" ref="AE31:AF31" si="5">K13</f>
         <v>5.9704059999999997</v>
       </c>
-      <c r="AF31" s="29">
+      <c r="AF31" s="27">
+        <f t="shared" si="5"/>
+        <v>7.6325320000000003</v>
+      </c>
+      <c r="AG31" s="27">
         <f t="shared" si="3"/>
-        <v>7.6325320000000003</v>
-      </c>
-      <c r="AG31" s="29">
-        <f t="shared" si="1"/>
         <v>4.9312519999999999E-2</v>
       </c>
-      <c r="AH31" s="29">
-        <f t="shared" si="2"/>
+      <c r="AH31" s="27">
+        <f t="shared" si="4"/>
         <v>6.2136660000000003E-2</v>
       </c>
-      <c r="AI31" s="29"/>
+      <c r="AI31" s="27"/>
     </row>
     <row r="32" spans="8:35" x14ac:dyDescent="0.35">
       <c r="I32" s="10" t="s">
@@ -24617,23 +25642,23 @@
       <c r="AD32" t="s">
         <v>624</v>
       </c>
-      <c r="AE32" s="29">
-        <f t="shared" ref="AE32:AF32" si="4">K14</f>
+      <c r="AE32" s="27">
+        <f t="shared" ref="AE32:AF32" si="6">K14</f>
         <v>7.4797289999999998</v>
       </c>
-      <c r="AF32" s="29">
+      <c r="AF32" s="27">
+        <f t="shared" si="6"/>
+        <v>7.5066800000000002</v>
+      </c>
+      <c r="AG32" s="27">
+        <f t="shared" si="3"/>
+        <v>4.8549160000000001E-2</v>
+      </c>
+      <c r="AH32" s="27">
         <f t="shared" si="4"/>
-        <v>7.5066800000000002</v>
-      </c>
-      <c r="AG32" s="29">
-        <f t="shared" si="1"/>
-        <v>4.8549160000000001E-2</v>
-      </c>
-      <c r="AH32" s="29">
-        <f t="shared" si="2"/>
         <v>5.3747389999999999E-2</v>
       </c>
-      <c r="AI32" s="29"/>
+      <c r="AI32" s="27"/>
     </row>
     <row r="33" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I33" t="s">
@@ -24685,18 +25710,18 @@
       </c>
     </row>
     <row r="35" spans="9:32" x14ac:dyDescent="0.35">
-      <c r="Y35" s="28" t="s">
+      <c r="Y35" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28" t="s">
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
     </row>
     <row r="36" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I36" s="10" t="s">
@@ -24724,22 +25749,22 @@
       <c r="Q36" t="s">
         <v>600</v>
       </c>
-      <c r="Y36" s="28" t="s">
+      <c r="Y36" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28" t="s">
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28" t="s">
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28" t="s">
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="AF36" s="28"/>
+      <c r="AF36" s="30"/>
     </row>
     <row r="37" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I37" t="s">
@@ -24816,28 +25841,28 @@
       <c r="Y38" s="25">
         <v>1</v>
       </c>
-      <c r="Z38" s="27" t="str">
+      <c r="Z38" s="26" t="str">
         <f>ROUND(O11,2)&amp;"%"</f>
         <v>5,46%</v>
       </c>
       <c r="AA38" s="25">
         <v>1</v>
       </c>
-      <c r="AB38" s="27" t="str">
+      <c r="AB38" s="26" t="str">
         <f>ROUND(P11,2)&amp;"%"</f>
         <v>5,09%</v>
       </c>
       <c r="AC38" s="25">
         <v>1</v>
       </c>
-      <c r="AD38" s="27" t="str">
+      <c r="AD38" s="26" t="str">
         <f>ROUND(O28,2)&amp;"%"</f>
         <v>1,08%</v>
       </c>
       <c r="AE38" s="25">
         <v>1</v>
       </c>
-      <c r="AF38" s="27" t="str">
+      <c r="AF38" s="26" t="str">
         <f>ROUND(P28,2)&amp;"%"</f>
         <v>1,48%</v>
       </c>
@@ -24874,29 +25899,29 @@
       <c r="Y39" s="25">
         <v>0.52881280367397432</v>
       </c>
-      <c r="Z39" s="27" t="str">
-        <f t="shared" ref="Z39:Z41" si="5">ROUND(O12,2)&amp;"%"</f>
+      <c r="Z39" s="26" t="str">
+        <f t="shared" ref="Z39:Z41" si="7">ROUND(O12,2)&amp;"%"</f>
         <v>3,19%</v>
       </c>
       <c r="AA39" s="25">
         <v>0.69126471468362927</v>
       </c>
-      <c r="AB39" s="27" t="str">
-        <f t="shared" ref="AB39:AB41" si="6">ROUND(P12,2)&amp;"%"</f>
+      <c r="AB39" s="26" t="str">
+        <f t="shared" ref="AB39:AB41" si="8">ROUND(P12,2)&amp;"%"</f>
         <v>4,32%</v>
       </c>
       <c r="AC39" s="25">
         <v>0.5261467019302839</v>
       </c>
-      <c r="AD39" s="27" t="str">
-        <f t="shared" ref="AD39:AD41" si="7">ROUND(O29,2)&amp;"%"</f>
+      <c r="AD39" s="26" t="str">
+        <f t="shared" ref="AD39:AD41" si="9">ROUND(O29,2)&amp;"%"</f>
         <v>0,59%</v>
       </c>
       <c r="AE39" s="25">
         <v>0.59869780575142362</v>
       </c>
-      <c r="AF39" s="27" t="str">
-        <f t="shared" ref="AF39:AF41" si="8">ROUND(P29,2)&amp;"%"</f>
+      <c r="AF39" s="26" t="str">
+        <f t="shared" ref="AF39:AF41" si="10">ROUND(P29,2)&amp;"%"</f>
         <v>0,91%</v>
       </c>
     </row>
@@ -24928,29 +25953,29 @@
       <c r="Y40" s="25">
         <v>0.58889384258172439</v>
       </c>
-      <c r="Z40" s="27" t="str">
-        <f t="shared" si="5"/>
+      <c r="Z40" s="26" t="str">
+        <f t="shared" si="7"/>
         <v>3,39%</v>
       </c>
       <c r="AA40" s="25">
         <v>0.69002561197986123</v>
       </c>
-      <c r="AB40" s="27" t="str">
-        <f t="shared" si="6"/>
+      <c r="AB40" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>4,34%</v>
       </c>
       <c r="AC40" s="25">
         <v>0.7317529997594584</v>
       </c>
-      <c r="AD40" s="27" t="str">
-        <f t="shared" si="7"/>
+      <c r="AD40" s="26" t="str">
+        <f t="shared" si="9"/>
         <v>0,81%</v>
       </c>
       <c r="AE40" s="25">
         <v>0.64485639706193698</v>
       </c>
-      <c r="AF40" s="27" t="str">
-        <f t="shared" si="8"/>
+      <c r="AF40" s="26" t="str">
+        <f t="shared" si="10"/>
         <v>1,08%</v>
       </c>
     </row>
@@ -24982,34 +26007,34 @@
       <c r="Y41" s="25">
         <v>0</v>
       </c>
-      <c r="Z41" s="27" t="str">
-        <f t="shared" si="5"/>
+      <c r="Z41" s="26" t="str">
+        <f t="shared" si="7"/>
         <v>3,33%</v>
       </c>
       <c r="AA41" s="25">
         <v>0</v>
       </c>
-      <c r="AB41" s="27" t="str">
-        <f t="shared" si="6"/>
+      <c r="AB41" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>4,1%</v>
       </c>
       <c r="AC41" s="25">
         <v>0.72042543081963584</v>
       </c>
-      <c r="AD41" s="27" t="str">
-        <f t="shared" si="7"/>
+      <c r="AD41" s="26" t="str">
+        <f t="shared" si="9"/>
         <v>0,73%</v>
       </c>
       <c r="AE41" s="25">
         <v>0.55779226413010896</v>
       </c>
-      <c r="AF41" s="27" t="str">
-        <f t="shared" si="8"/>
+      <c r="AF41" s="26" t="str">
+        <f t="shared" si="10"/>
         <v>0,85%</v>
       </c>
     </row>
     <row r="45" spans="9:32" x14ac:dyDescent="0.35">
-      <c r="X45" s="30"/>
+      <c r="X45" s="28"/>
       <c r="Y45">
         <v>1</v>
       </c>
@@ -25018,7 +26043,7 @@
       </c>
     </row>
     <row r="46" spans="9:32" x14ac:dyDescent="0.35">
-      <c r="X46" s="30" t="s">
+      <c r="X46" s="28" t="s">
         <v>622</v>
       </c>
       <c r="Y46" t="s">
@@ -25029,7 +26054,7 @@
       </c>
     </row>
     <row r="47" spans="9:32" x14ac:dyDescent="0.35">
-      <c r="X47" s="30" t="s">
+      <c r="X47" s="28" t="s">
         <v>623</v>
       </c>
       <c r="Y47" t="s">
@@ -25040,7 +26065,7 @@
       </c>
     </row>
     <row r="48" spans="9:32" x14ac:dyDescent="0.35">
-      <c r="X48" s="31" t="s">
+      <c r="X48" s="29" t="s">
         <v>624</v>
       </c>
       <c r="Y48" t="s">
@@ -25048,6 +26073,48 @@
       </c>
       <c r="Z48" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="50" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X50" s="28"/>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X51" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="52" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X52" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="53" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X53" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -25064,7 +26131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EB6AD7-BBCF-41A4-A705-09A536484B28}">
   <dimension ref="A1:A39"/>
   <sheetViews>

--- a/Data Info/DadosEscolhidos.xlsx
+++ b/Data Info/DadosEscolhidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/GitHub/gdp-forecasting-with-ML/Data Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2552" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF44AD6-27A0-4765-AB12-E367BA1FBCF2}"/>
+  <xr:revisionPtr revIDLastSave="2813" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE20C0B2-590D-4EA8-ACFB-FB9567300EDF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Official Series - Quarterly" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6471" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6611" uniqueCount="689">
   <si>
     <t>NSAprod_cam_br</t>
   </si>
@@ -2044,9 +2044,6 @@
     <t>Diebold-Mariano</t>
   </si>
   <si>
-    <t>monthly</t>
-  </si>
-  <si>
     <t xml:space="preserve">h = 1 </t>
   </si>
   <si>
@@ -2060,6 +2057,99 @@
   </si>
   <si>
     <t xml:space="preserve">MAPE (%) </t>
+  </si>
+  <si>
+    <t>01 de dezembro, 2ª feira</t>
+  </si>
+  <si>
+    <t>02 de dezembro, 3ª feira</t>
+  </si>
+  <si>
+    <t>03 de dezembro, 4ª feira</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>0.0003***</t>
+  </si>
+  <si>
+    <t>0.0007***</t>
+  </si>
+  <si>
+    <t>0.0031**</t>
+  </si>
+  <si>
+    <t>0.0001***</t>
+  </si>
+  <si>
+    <t>0.0091**</t>
+  </si>
+  <si>
+    <t>0.0000***</t>
+  </si>
+  <si>
+    <t>0.0218*</t>
+  </si>
+  <si>
+    <t>0.2291</t>
+  </si>
+  <si>
+    <t>0.0281*</t>
+  </si>
+  <si>
+    <t>0.2186</t>
+  </si>
+  <si>
+    <t>0.0064**</t>
+  </si>
+  <si>
+    <t>0.1580</t>
+  </si>
+  <si>
+    <t>Notes: Table reports Diebold–Mariano test p-values comparing each model against the benchmark.</t>
+  </si>
+  <si>
+    <t>Significance: * p &lt; 0.10, ** p &lt; 0.05, *** p &lt; 0.01.</t>
+  </si>
+  <si>
+    <t>08:00h – 09:20h</t>
+  </si>
+  <si>
+    <t>09:30h – 10:50h</t>
+  </si>
+  <si>
+    <t>11:00h – 12:20h</t>
+  </si>
+  <si>
+    <t>12:30h – 13:50h</t>
+  </si>
+  <si>
+    <t>14:00h – 15:20h</t>
+  </si>
+  <si>
+    <t>15:30h – 16:50h</t>
+  </si>
+  <si>
+    <t>17:00h – 18:20h</t>
+  </si>
+  <si>
+    <t>18:30h – 19:50h</t>
+  </si>
+  <si>
+    <t>20:00h – 21:20h</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>SABINO</t>
+  </si>
+  <si>
+    <t>ZIEGELMANN</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2162,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2135,6 +2225,45 @@
     <font>
       <b/>
       <sz val="7"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
       <color rgb="FF4D4D4C"/>
       <name val="Cascadia Code"/>
       <family val="3"/>
@@ -2222,7 +2351,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2293,22 +2422,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2321,15 +2435,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2341,6 +2450,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -23747,10 +23905,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540FB65C-DB34-4596-B31F-FC859CCB543C}">
-  <dimension ref="B2:R40"/>
+  <dimension ref="B2:AE75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="105" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23760,37 +23918,47 @@
     <col min="5" max="5" width="0.453125" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
     <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" customWidth="1"/>
+    <col min="13" max="13" width="24.26953125" customWidth="1"/>
+    <col min="14" max="14" width="20.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
     <col min="17" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.6328125" customWidth="1"/>
+    <col min="20" max="21" width="15.7265625" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="26" max="26" width="3.08984375" customWidth="1"/>
+    <col min="27" max="27" width="21.08984375" customWidth="1"/>
+    <col min="28" max="28" width="3.453125" customWidth="1"/>
+    <col min="29" max="29" width="16.6328125" customWidth="1"/>
+    <col min="30" max="30" width="3.08984375" customWidth="1"/>
+    <col min="31" max="31" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>578</v>
       </c>
@@ -23810,7 +23978,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>648</v>
       </c>
@@ -23836,81 +24004,85 @@
       <c r="J4" t="s">
         <v>595</v>
       </c>
-      <c r="P4" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P4" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>649</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="30">
         <v>5.3612840000000004</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="30">
         <v>4.273517</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="30">
         <v>3.1899090000000001</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="11">
         <v>7.6462380000000003</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="11">
         <v>5.8681039999999998</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="11">
         <v>4.3203310000000004</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="Q5" t="s">
-        <v>636</v>
-      </c>
-      <c r="R5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q5" s="44" t="str">
+        <f>ROUND(0.0002858255,4)&amp;"***"</f>
+        <v>0,0003***</v>
+      </c>
+      <c r="R5" s="44" t="str">
+        <f>ROUND(0.0007452197,4)&amp;"***"</f>
+        <v>0,0007***</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>650</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="11">
         <v>5.9704059999999997</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="11">
         <v>4.5451629999999996</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="11">
         <v>3.3889990000000001</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="11">
         <v>7.6325320000000003</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="11">
         <v>5.8982469999999996</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="11">
         <v>4.3434660000000003</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="Q6" t="s">
-        <v>638</v>
-      </c>
-      <c r="R6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q6" s="44" t="str">
+        <f>ROUND(0.003311928,4)&amp;"**"</f>
+        <v>0,0033**</v>
+      </c>
+      <c r="R6" s="44" t="str">
+        <f>ROUND(0.0000583151,4)&amp;"***"</f>
+        <v>0,0001***</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>651</v>
       </c>
@@ -23923,26 +24095,32 @@
       <c r="F7" s="11">
         <v>3.3251400000000002</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="30">
         <v>7.5066800000000002</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="30">
         <v>5.5938590000000001</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="30">
         <v>4.095269</v>
       </c>
       <c r="P7" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="Q7" t="s">
-        <v>640</v>
-      </c>
-      <c r="R7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q7" s="44" t="str">
+        <f>ROUND(0.009126611,4)&amp;"**"</f>
+        <v>0,0091**</v>
+      </c>
+      <c r="R7" s="44" t="str">
+        <f>ROUND(0.0000002155552,4)&amp;"***"</f>
+        <v>0***</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>578</v>
       </c>
@@ -23961,65 +24139,67 @@
       <c r="I9" t="s">
         <v>580</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q9" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
+        <v>653</v>
+      </c>
+      <c r="E10" t="s">
+        <v>653</v>
+      </c>
+      <c r="F10" t="s">
+        <v>653</v>
+      </c>
+      <c r="G10" t="s">
         <v>654</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>654</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>654</v>
-      </c>
-      <c r="G10" t="s">
-        <v>655</v>
-      </c>
-      <c r="H10" t="s">
-        <v>655</v>
-      </c>
-      <c r="I10" t="s">
-        <v>655</v>
       </c>
       <c r="P10" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="Q10" t="s">
-        <v>642</v>
-      </c>
-      <c r="R10" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q10" s="44" t="str">
+        <f>ROUND(0.0218072228,4)&amp;"*"</f>
+        <v>0,0218*</v>
+      </c>
+      <c r="R10" s="45">
+        <f>0.2291410844</f>
+        <v>0.2291410844</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>615</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="13">
         <v>6.7389569999999996E-2</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="13">
         <v>5.007342E-2</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="13">
         <v>1.0766389999999999</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="13">
         <v>9.6357360000000003E-2</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="13">
         <v>6.8928249999999996E-2</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="13">
         <v>1.4784839999999999</v>
       </c>
       <c r="J11" t="s">
@@ -24028,108 +24208,179 @@
       <c r="P11" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="Q11" t="s">
-        <v>644</v>
-      </c>
-      <c r="R11" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q11" s="44" t="str">
+        <f>0.0281022508&amp;"*"</f>
+        <v>0,0281022508*</v>
+      </c>
+      <c r="R11" s="45">
+        <f>0.2185918042</f>
+        <v>0.21859180419999999</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>616</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="31">
         <v>3.5456799999999997E-2</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="31">
         <v>2.732362E-2</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="31">
         <v>0.59215430000000002</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="12">
         <v>5.7688940000000001E-2</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="12">
         <v>4.1704409999999997E-2</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="12">
         <v>0.90730739999999999</v>
       </c>
       <c r="P12" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="Q12" t="s">
-        <v>646</v>
-      </c>
-      <c r="R12" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q12" s="44" t="str">
+        <f>0.0063982168&amp;"**"</f>
+        <v>0,0063982168**</v>
+      </c>
+      <c r="R12" s="45">
+        <v>0.15795163949999999</v>
+      </c>
+      <c r="AA12" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>617</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="12">
         <v>4.9312519999999999E-2</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="12">
         <v>3.7580210000000003E-2</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="12">
         <v>0.81035729999999995</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="12">
         <v>6.2136660000000003E-2</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="12">
         <v>4.9575040000000001E-2</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="12">
         <v>1.0750708</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="AA13" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC13" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE13" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>618</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="23">
         <v>4.8549160000000001E-2</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="23">
         <v>3.3600360000000003E-2</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="23">
         <v>0.72549490000000005</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="32">
         <v>5.3747389999999999E-2</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="32">
         <v>3.9196839999999997E-2</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="32">
         <v>0.84613229999999995</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="AA14" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC14" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE14" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA15" s="55" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC15" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE15" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="45" t="s">
-        <v>658</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="AA17" s="53" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="49"/>
+      <c r="AA18" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B19" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="F19" s="48" t="s">
+      <c r="D19" s="40"/>
+      <c r="F19" s="40" t="s">
         <v>626</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="40"/>
       <c r="I19" t="s">
         <v>625</v>
       </c>
@@ -24139,22 +24390,43 @@
       <c r="L19" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="Q19" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="R19" s="46"/>
+      <c r="T19" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="U19" s="46"/>
+      <c r="AA19" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="37">
         <v>12</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37">
         <v>1</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="37">
         <v>4</v>
       </c>
       <c r="J20" t="s">
@@ -24169,175 +24441,318 @@
       <c r="M20" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="P20" s="47" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q20" s="48" t="s">
+        <v>628</v>
+      </c>
+      <c r="R20" s="48" t="s">
+        <v>630</v>
+      </c>
+      <c r="S20" s="37"/>
+      <c r="T20" s="48" t="s">
+        <v>628</v>
+      </c>
+      <c r="U20" s="48" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA20" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="35">
         <f>ROUND(F11,2)</f>
         <v>1.08</v>
       </c>
-      <c r="D21" s="44" t="str">
+      <c r="D21" s="26" t="str">
         <f>ROUND(I11,2)&amp;"%"</f>
         <v>1,48%</v>
       </c>
-      <c r="F21" s="44" t="str">
+      <c r="F21" s="26" t="str">
         <f>ROUND(F4,2)&amp;"%"</f>
         <v>5,46%</v>
       </c>
-      <c r="G21" s="44" t="str">
+      <c r="G21" s="26" t="str">
         <f>ROUND(I4,2)&amp;"%"</f>
         <v>5,09%</v>
       </c>
       <c r="I21" t="s">
         <v>631</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="42">
         <v>1</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="42">
         <v>1</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="42">
         <v>1</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="42" t="s">
+      <c r="P21" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="C22" s="43">
+      <c r="Q21" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA21" s="58"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>622</v>
+      </c>
+      <c r="C22" s="36">
         <f>ROUND(F12,2)</f>
         <v>0.59</v>
       </c>
-      <c r="D22" s="44" t="str">
+      <c r="D22" s="26" t="str">
         <f>ROUND(I12,2)&amp;"%"</f>
         <v>0,91%</v>
       </c>
-      <c r="F22" s="43" t="str">
+      <c r="F22" s="36" t="str">
         <f>ROUND(F5,2)&amp;"%"</f>
         <v>3,19%</v>
       </c>
-      <c r="G22" s="44" t="str">
+      <c r="G22" s="26" t="str">
         <f>ROUND(I5,2)&amp;"%"</f>
         <v>4,32%</v>
       </c>
       <c r="I22" t="s">
         <v>622</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="43">
         <f>D12/$D$11</f>
         <v>0.5261467019302839</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="42">
         <f>G12/$G$11</f>
         <v>0.59869780575142362</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="43">
         <f>D5/$D$4</f>
         <v>0.52881280367397432</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="42">
         <f>G5/$G$4</f>
         <v>0.69126471468362927</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="42" t="s">
+      <c r="P22" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="C23" s="44">
+      <c r="Q22" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA22" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" s="26">
         <f>ROUND(F13,2)</f>
         <v>0.81</v>
       </c>
-      <c r="D23" s="44" t="str">
+      <c r="D23" s="26" t="str">
         <f>ROUND(I13,2)&amp;"%"</f>
         <v>1,08%</v>
       </c>
-      <c r="F23" s="44" t="str">
+      <c r="F23" s="26" t="str">
         <f>ROUND(F6,2)&amp;"%"</f>
         <v>3,39%</v>
       </c>
-      <c r="G23" s="44" t="str">
+      <c r="G23" s="26" t="str">
         <f>ROUND(I6,2)&amp;"%"</f>
         <v>4,34%</v>
       </c>
       <c r="I23" t="s">
         <v>623</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="42">
         <f>D13/$D$11</f>
         <v>0.7317529997594584</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="42">
         <f>G13/$G$11</f>
         <v>0.64485639706193698</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="42">
         <f>D6/$D$4</f>
         <v>0.58889384258172439</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="42">
         <f>G6/$G$4</f>
         <v>0.69002561197986123</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="45" t="s">
+      <c r="P23" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="C24" s="46" t="str">
+      <c r="Q23" s="48" t="s">
+        <v>666</v>
+      </c>
+      <c r="R23" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="S23" s="37"/>
+      <c r="T23" s="48" t="s">
+        <v>672</v>
+      </c>
+      <c r="U23" s="48" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC23" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B24" s="37" t="s">
+        <v>624</v>
+      </c>
+      <c r="C24" s="38" t="str">
         <f>ROUND(F14,2)&amp;"%"</f>
         <v>0,73%</v>
       </c>
-      <c r="D24" s="47" t="str">
+      <c r="D24" s="39" t="str">
         <f>ROUND(I14,2)&amp;"%"</f>
         <v>0,85%</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46" t="str">
+      <c r="E24" s="37"/>
+      <c r="F24" s="38" t="str">
         <f>ROUND(F7,2)&amp;"%"</f>
         <v>3,33%</v>
       </c>
-      <c r="G24" s="47" t="str">
+      <c r="G24" s="39" t="str">
         <f>ROUND(I7,2)&amp;"%"</f>
         <v>4,1%</v>
       </c>
       <c r="I24" t="s">
         <v>624</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="42">
         <f>D14/$D$11</f>
         <v>0.72042543081963584</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="43">
         <f>G14/$G$11</f>
         <v>0.55779226413010896</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="42">
         <f>D7/$D$4</f>
         <v>0.73776663635269679</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="43">
         <f>G7/$G$4</f>
         <v>0.67864785381010972</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C26" s="30" t="s">
+      <c r="P24" s="50" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC24" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="P25" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC25" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="C26" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="F26" s="30" t="s">
+      <c r="D26" s="41"/>
+      <c r="F26" s="41" t="s">
         <v>626</v>
       </c>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G26" s="41"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>628</v>
       </c>
@@ -24350,8 +24765,13 @@
       <c r="G27" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="P27" s="28"/>
+      <c r="Z27" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA27" s="57"/>
+    </row>
+    <row r="28" spans="2:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>631</v>
       </c>
@@ -24371,12 +24791,18 @@
         <f>G4</f>
         <v>11.06123</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="P28" s="28"/>
+      <c r="AA28" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>622</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="34">
         <f>D12</f>
         <v>3.5456799999999997E-2</v>
       </c>
@@ -24384,7 +24810,7 @@
         <f>G12</f>
         <v>5.7688940000000001E-2</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="34">
         <f>D5</f>
         <v>5.3612840000000004</v>
       </c>
@@ -24392,8 +24818,21 @@
         <f>G5</f>
         <v>7.6462380000000003</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="P29" s="28"/>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC29" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE29" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>623</v>
       </c>
@@ -24413,8 +24852,23 @@
         <f>G6</f>
         <v>7.6325320000000003</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="AA30" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>624</v>
       </c>
@@ -24422,7 +24876,7 @@
         <f>D14</f>
         <v>4.8549160000000001E-2</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="34">
         <f>G14</f>
         <v>5.3747389999999999E-2</v>
       </c>
@@ -24430,49 +24884,94 @@
         <f>D7</f>
         <v>7.4797289999999998</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="34">
         <f>G7</f>
         <v>7.5066800000000002</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="AA31" s="55" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC31" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE31" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+    </row>
+    <row r="33" spans="2:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C34" s="30" t="s">
+      <c r="AA33" s="53" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="C34" s="41" t="s">
         <v>626</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30" t="s">
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C35" s="30" t="s">
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="AA34" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC34" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="C35" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="41" t="s">
         <v>629</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="41"/>
+      <c r="I35" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="J35" s="30"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J35" s="41"/>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>625</v>
       </c>
@@ -24497,8 +24996,18 @@
       <c r="J36" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="AA36" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC36" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>631</v>
       </c>
@@ -24530,8 +25039,11 @@
         <f>ROUND(I11,2)&amp;"%"</f>
         <v>1,48%</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="AA37" s="58"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+    </row>
+    <row r="38" spans="2:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>622</v>
       </c>
@@ -24563,8 +25075,13 @@
         <f>ROUND(I12,2)&amp;"%"</f>
         <v>0,91%</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="AA38" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>623</v>
       </c>
@@ -24596,8 +25113,18 @@
         <f>ROUND(I13,2)&amp;"%"</f>
         <v>1,08%</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="AA39" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC39" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>624</v>
       </c>
@@ -24629,19 +25156,474 @@
         <f>ROUND(I14,2)&amp;"%"</f>
         <v>0,85%</v>
       </c>
+      <c r="AA40" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD40" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA41" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC41" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD41" s="57"/>
+      <c r="AE41" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z43" s="57" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA43" s="57"/>
+    </row>
+    <row r="44" spans="2:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA44" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="54"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA45" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC46" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="55" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="54"/>
+      <c r="AC48" s="54"/>
+    </row>
+    <row r="49" spans="26:31" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA49" s="53" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB49" s="54"/>
+      <c r="AC49" s="54"/>
+    </row>
+    <row r="50" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="AA50" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC50" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD50" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="51" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC51" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD51" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="52" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="AA52" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD52" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="53" spans="26:31" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA53" s="58"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="54"/>
+    </row>
+    <row r="54" spans="26:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA54" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC54" s="54"/>
+      <c r="AD54" s="54"/>
+    </row>
+    <row r="55" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="AA55" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC55" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD55" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="56" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="AA56" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD56" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="57" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="AA57" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD57" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="AA61" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="26:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="AA62" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
+    </row>
+    <row r="63" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z63">
+        <f>SUM(Z13,Z29)</f>
+        <v>1</v>
+      </c>
+      <c r="AA63" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB63">
+        <f>SUM(AB13,AB29)</f>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD63">
+        <f>SUM(AD13,AD29)</f>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="64" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z64">
+        <f t="shared" ref="Z64:AB75" si="0">SUM(Z14,Z30)</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC64" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" ref="AD64" si="1">SUM(AD14,AD30)</f>
+        <v>1</v>
+      </c>
+      <c r="AE64" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="65" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="55" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" ref="AD65" si="2">SUM(AD15,AD31)</f>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="66" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="AA66" s="56"/>
+      <c r="AC66" s="54"/>
+    </row>
+    <row r="67" spans="26:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="AA67" s="53" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC67" s="54"/>
+    </row>
+    <row r="68" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC68" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" ref="AD68" si="3">SUM(AD18,AD34)</f>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="69" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z69">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA69" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC69" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" ref="AD69" si="4">SUM(AD19,AD35)</f>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="70" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB70" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC70" s="59" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" ref="AD70" si="5">SUM(AD20,AD36)</f>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="71" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="AA71" s="58"/>
+      <c r="AC71" s="54"/>
+    </row>
+    <row r="72" spans="26:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="AA72" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC72" s="54"/>
+    </row>
+    <row r="73" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA73" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" ref="AD73" si="6">SUM(AD23,AD39)</f>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="74" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z74">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA74" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC74" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" ref="AD74" si="7">SUM(AD24,AD40)</f>
+        <v>1</v>
+      </c>
+      <c r="AE74" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="75" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA75" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" ref="AD75" si="8">SUM(AD25,AD41)</f>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="55" t="s">
+        <v>684</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:J34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -25710,18 +26692,18 @@
       </c>
     </row>
     <row r="35" spans="9:32" x14ac:dyDescent="0.35">
-      <c r="Y35" s="30" t="s">
+      <c r="Y35" s="41" t="s">
         <v>626</v>
       </c>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30" t="s">
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
     </row>
     <row r="36" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I36" s="10" t="s">
@@ -25749,22 +26731,22 @@
       <c r="Q36" t="s">
         <v>600</v>
       </c>
-      <c r="Y36" s="30" t="s">
+      <c r="Y36" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30" t="s">
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41" t="s">
         <v>629</v>
       </c>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30" t="s">
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30" t="s">
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="AF36" s="30"/>
+      <c r="AF36" s="41"/>
     </row>
     <row r="37" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I37" t="s">

--- a/Data Info/DadosEscolhidos.xlsx
+++ b/Data Info/DadosEscolhidos.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/GitHub/gdp-forecasting-with-ML/Data Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2813" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE20C0B2-590D-4EA8-ACFB-FB9567300EDF}"/>
+  <xr:revisionPtr revIDLastSave="2911" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB78DE4F-8003-42AD-A1DD-A607BF8079E3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Official Series - Quarterly" sheetId="7" r:id="rId1"/>
-    <sheet name="Table Q" sheetId="9" r:id="rId2"/>
-    <sheet name="Official Series - Monthly" sheetId="8" r:id="rId3"/>
-    <sheet name="Table M" sheetId="10" r:id="rId4"/>
-    <sheet name="All Series" sheetId="1" state="hidden" r:id="rId5"/>
-    <sheet name="All Series (2)" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Results" sheetId="12" r:id="rId7"/>
-    <sheet name="Results - test" sheetId="11" r:id="rId8"/>
-    <sheet name="exports_SAseries" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="Planilha1" sheetId="13" r:id="rId2"/>
+    <sheet name="Table Q" sheetId="9" r:id="rId3"/>
+    <sheet name="Official Series - Monthly" sheetId="8" r:id="rId4"/>
+    <sheet name="Table M" sheetId="10" r:id="rId5"/>
+    <sheet name="All Series" sheetId="1" state="hidden" r:id="rId6"/>
+    <sheet name="All Series (2)" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Results" sheetId="12" r:id="rId8"/>
+    <sheet name="Results - test" sheetId="11" r:id="rId9"/>
+    <sheet name="exports_SAseries" sheetId="3" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Official Series - Quarterly'!$A$1:$J$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6611" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7356" uniqueCount="753">
   <si>
     <t>NSAprod_cam_br</t>
   </si>
@@ -2150,6 +2152,198 @@
   </si>
   <si>
     <t>ZIEGELMANN</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>GDP - Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t>Slaughter of chickens</t>
+  </si>
+  <si>
+    <t>Slaughter of chickens – carcass weight</t>
+  </si>
+  <si>
+    <t>Slaughter of steers</t>
+  </si>
+  <si>
+    <t>Slaughter of steers – carcass weight</t>
+  </si>
+  <si>
+    <t>Slaughter of cows</t>
+  </si>
+  <si>
+    <t>Slaughter of cows – carcass weight</t>
+  </si>
+  <si>
+    <t>Slaughter of young bulls</t>
+  </si>
+  <si>
+    <t>Slaughter of young bulls – carcass weight</t>
+  </si>
+  <si>
+    <t>Slaughter of swine</t>
+  </si>
+  <si>
+    <t>Slaughter of swine – carcass weight</t>
+  </si>
+  <si>
+    <t>GDP Monitor – Agriculture</t>
+  </si>
+  <si>
+    <t>GDP Monitor – Industry</t>
+  </si>
+  <si>
+    <t>GDP Monitor – Services</t>
+  </si>
+  <si>
+    <t>GDP Monitor – Total</t>
+  </si>
+  <si>
+    <t>PIB trimestral - Agropecuária (total)</t>
+  </si>
+  <si>
+    <t>PIB trimestral - Indústria (total)</t>
+  </si>
+  <si>
+    <t>PIB trimestral - Serviços (total)</t>
+  </si>
+  <si>
+    <t>PIB trimestral - Total, a preços de mercado</t>
+  </si>
+  <si>
+    <t>Quarterly GDP – Agriculture (total)</t>
+  </si>
+  <si>
+    <t>Quarterly GDP – Industry (total)</t>
+  </si>
+  <si>
+    <t>Quarterly GDP – Services (total)</t>
+  </si>
+  <si>
+    <t>Quarterly GDP – Total, at market prices</t>
+  </si>
+  <si>
+    <t>IPCA Price Index – 3-month accumulated variation</t>
+  </si>
+  <si>
+    <t>IGP-M Price Index – 3-month accumulated variation</t>
+  </si>
+  <si>
+    <t>IGP-M Price Index (1st decennial period) – 3-month accumulated variation</t>
+  </si>
+  <si>
+    <t>IGP-M Price Index (2nd decennial period) – 3-month accumulated variation</t>
+  </si>
+  <si>
+    <t>IGP-DI Price Index – 3-month accumulated variation</t>
+  </si>
+  <si>
+    <t>IGP-10 Price Index – 3-month accumulated variation</t>
+  </si>
+  <si>
+    <t>INPC Price Index – 3-month accumulated variation</t>
+  </si>
+  <si>
+    <t>Índice geral de preços - 10 (IGP-10) - Variação acumulada em 3 meses</t>
+  </si>
+  <si>
+    <t>Índice geral de preços - DI (IGP-DI) - Variação acumulada em 3 meses</t>
+  </si>
+  <si>
+    <t>Índice geral de preços de mercado (IGP-M) (2º decêndio) - Variação acumulada em 3 meses</t>
+  </si>
+  <si>
+    <t>Índice geral de preços de mercado (IGP-M) (1º decêndio) - Variação acumulada em 3 meses</t>
+  </si>
+  <si>
+    <t>Índice geral de preços de mercado (IGP-M) - Variação acumulada em 3 meses</t>
+  </si>
+  <si>
+    <t>Índice de preços ao consumidor ampliado (IPCA) - Variação acumulada em 3 meses</t>
+  </si>
+  <si>
+    <t>Índice nacional de preços ao consumidor (INPC) - Variação acumulada em 3 meses</t>
+  </si>
+  <si>
+    <t>Vento - Velocidade Média Mensal</t>
+  </si>
+  <si>
+    <t>Vento - Velocidade Maxima Mensal</t>
+  </si>
+  <si>
+    <t>Umidade Relativa Do Ar - Media Mensal</t>
+  </si>
+  <si>
+    <t>Temperatura Minima - Media Mensal</t>
+  </si>
+  <si>
+    <t>Temperatura Maxima - Media Mensal</t>
+  </si>
+  <si>
+    <t>Pressao Atmosferica - Media Mensal</t>
+  </si>
+  <si>
+    <t>Precipitacao - Total Mensal</t>
+  </si>
+  <si>
+    <t>Nebulosidade - Media Mensal</t>
+  </si>
+  <si>
+    <t>Insolacao - Total Mensal</t>
+  </si>
+  <si>
+    <t>Direcao Predominante Do Vento - Mensal</t>
+  </si>
+  <si>
+    <t>Indicador IPEA de formação bruta de capital fixo (FBCF)</t>
+  </si>
+  <si>
+    <t>Dívida pública total do governo</t>
+  </si>
+  <si>
+    <t>Dívida liquida do setor publico (DLSP) - total - setor público não-financeiro</t>
+  </si>
+  <si>
+    <t>DLSP - total - governo federal e Banco Central</t>
+  </si>
+  <si>
+    <t>DLSP -  total - estados e municí­pios</t>
+  </si>
+  <si>
+    <t>DLSP - total - empresas estatais</t>
+  </si>
+  <si>
+    <t>Taxa de câmbio comercial R$ / US$  - compra, fim de período</t>
+  </si>
+  <si>
+    <t>CRB - all commodities index</t>
+  </si>
+  <si>
+    <t>CRB - All Commodities Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DEE - Economics and Statistics Department</t>
+  </si>
+  <si>
+    <t>0.</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2448,12 +2642,6 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2461,9 +2649,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2484,7 +2669,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2498,6 +2682,25 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2788,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC43247-4F7A-412E-B82F-0C6D32656462}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2808,28 +3011,28 @@
       <c r="A1" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="56" t="s">
         <v>530</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="56" t="s">
         <v>531</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="56" t="s">
         <v>311</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="56" t="s">
         <v>537</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="56" t="s">
         <v>538</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="56" t="s">
         <v>239</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -6467,7 +6670,2643 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EB6AD7-BBCF-41A4-A705-09A536484B28}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView zoomScale="63" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FCE4F4-5393-4F0F-8CF3-DD98C9F43B31}">
+  <dimension ref="A1:M155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>689</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>690</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>691</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" t="s">
+        <v>694</v>
+      </c>
+      <c r="I2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" t="s">
+        <v>695</v>
+      </c>
+      <c r="I3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" t="s">
+        <v>696</v>
+      </c>
+      <c r="I4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" t="s">
+        <v>697</v>
+      </c>
+      <c r="I5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" t="s">
+        <v>698</v>
+      </c>
+      <c r="I6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" t="s">
+        <v>699</v>
+      </c>
+      <c r="I7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" t="s">
+        <v>700</v>
+      </c>
+      <c r="I8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" t="s">
+        <v>701</v>
+      </c>
+      <c r="I9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" t="s">
+        <v>702</v>
+      </c>
+      <c r="I10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>703</v>
+      </c>
+      <c r="I11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" t="s">
+        <v>704</v>
+      </c>
+      <c r="I12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" t="s">
+        <v>705</v>
+      </c>
+      <c r="I13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" t="s">
+        <v>706</v>
+      </c>
+      <c r="I14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" t="s">
+        <v>708</v>
+      </c>
+      <c r="I15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" t="s">
+        <v>707</v>
+      </c>
+      <c r="I16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" t="s">
+        <v>713</v>
+      </c>
+      <c r="I17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" t="s">
+        <v>710</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" t="s">
+        <v>714</v>
+      </c>
+      <c r="I18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" t="s">
+        <v>711</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" t="s">
+        <v>715</v>
+      </c>
+      <c r="I19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" t="s">
+        <v>716</v>
+      </c>
+      <c r="I20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" t="s">
+        <v>717</v>
+      </c>
+      <c r="I21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" t="s">
+        <v>728</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" t="s">
+        <v>718</v>
+      </c>
+      <c r="I22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>520</v>
+      </c>
+      <c r="B23" t="s">
+        <v>727</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" t="s">
+        <v>719</v>
+      </c>
+      <c r="I23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>521</v>
+      </c>
+      <c r="B24" t="s">
+        <v>726</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" t="s">
+        <v>720</v>
+      </c>
+      <c r="I24" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" t="s">
+        <v>725</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" t="s">
+        <v>721</v>
+      </c>
+      <c r="I25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" t="s">
+        <v>724</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" t="s">
+        <v>722</v>
+      </c>
+      <c r="I26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" t="s">
+        <v>730</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" t="s">
+        <v>723</v>
+      </c>
+      <c r="I27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>541</v>
+      </c>
+      <c r="I28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>511</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>541</v>
+      </c>
+      <c r="I29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>512</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>541</v>
+      </c>
+      <c r="I30" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>513</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>541</v>
+      </c>
+      <c r="I31" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>515</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>229</v>
+      </c>
+      <c r="I33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>516</v>
+      </c>
+      <c r="B34" t="s">
+        <v>498</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>517</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>228</v>
+      </c>
+      <c r="I35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>522</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>523</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
+      <c r="I37" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>229</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>229</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>229</v>
+      </c>
+      <c r="I41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>234</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>338</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>236</v>
+      </c>
+      <c r="I51" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>509</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>236</v>
+      </c>
+      <c r="I52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>508</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>229</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>229</v>
+      </c>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>229</v>
+      </c>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>229</v>
+      </c>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>229</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>229</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>238</v>
+      </c>
+      <c r="I61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>234</v>
+      </c>
+      <c r="I62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>234</v>
+      </c>
+      <c r="I63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>748</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" t="s">
+        <v>233</v>
+      </c>
+      <c r="H64" t="s">
+        <v>749</v>
+      </c>
+      <c r="I64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>229</v>
+      </c>
+      <c r="H65" t="s">
+        <v>750</v>
+      </c>
+      <c r="I65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>238</v>
+      </c>
+      <c r="I66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>238</v>
+      </c>
+      <c r="I67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>238</v>
+      </c>
+      <c r="I68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>238</v>
+      </c>
+      <c r="I69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>225</v>
+      </c>
+      <c r="I70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>225</v>
+      </c>
+      <c r="I71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>225</v>
+      </c>
+      <c r="I72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" t="s">
+        <v>747</v>
+      </c>
+      <c r="C73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>541</v>
+      </c>
+      <c r="I73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>238</v>
+      </c>
+      <c r="I74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
+        <v>746</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>230</v>
+      </c>
+      <c r="I75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" t="s">
+        <v>745</v>
+      </c>
+      <c r="C76" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>230</v>
+      </c>
+      <c r="I76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
+        <v>744</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>230</v>
+      </c>
+      <c r="I77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
+        <v>744</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>230</v>
+      </c>
+      <c r="I78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" t="s">
+        <v>743</v>
+      </c>
+      <c r="C79" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>230</v>
+      </c>
+      <c r="I79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>742</v>
+      </c>
+      <c r="C80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>230</v>
+      </c>
+      <c r="I80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" t="s">
+        <v>233</v>
+      </c>
+      <c r="I81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" t="s">
+        <v>233</v>
+      </c>
+      <c r="I82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" t="s">
+        <v>233</v>
+      </c>
+      <c r="I83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" t="s">
+        <v>233</v>
+      </c>
+      <c r="I84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>232</v>
+      </c>
+      <c r="I86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>232</v>
+      </c>
+      <c r="I87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88" t="s">
+        <v>741</v>
+      </c>
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>229</v>
+      </c>
+      <c r="I88" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" t="s">
+        <v>233</v>
+      </c>
+      <c r="I89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" t="s">
+        <v>233</v>
+      </c>
+      <c r="I90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" t="s">
+        <v>740</v>
+      </c>
+      <c r="C91" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" t="s">
+        <v>428</v>
+      </c>
+      <c r="F91" t="s">
+        <v>231</v>
+      </c>
+      <c r="I91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
+        <v>739</v>
+      </c>
+      <c r="C92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" t="s">
+        <v>205</v>
+      </c>
+      <c r="E92" t="s">
+        <v>428</v>
+      </c>
+      <c r="F92" t="s">
+        <v>231</v>
+      </c>
+      <c r="I92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s">
+        <v>738</v>
+      </c>
+      <c r="C93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" t="s">
+        <v>428</v>
+      </c>
+      <c r="F93" t="s">
+        <v>231</v>
+      </c>
+      <c r="I93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>737</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" t="s">
+        <v>428</v>
+      </c>
+      <c r="F94" t="s">
+        <v>231</v>
+      </c>
+      <c r="I94" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" t="s">
+        <v>736</v>
+      </c>
+      <c r="C95" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" t="s">
+        <v>208</v>
+      </c>
+      <c r="E95" t="s">
+        <v>428</v>
+      </c>
+      <c r="F95" t="s">
+        <v>231</v>
+      </c>
+      <c r="I95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
+        <v>735</v>
+      </c>
+      <c r="C96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" t="s">
+        <v>428</v>
+      </c>
+      <c r="F96" t="s">
+        <v>231</v>
+      </c>
+      <c r="I96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" t="s">
+        <v>428</v>
+      </c>
+      <c r="F97" t="s">
+        <v>231</v>
+      </c>
+      <c r="I97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>734</v>
+      </c>
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" t="s">
+        <v>428</v>
+      </c>
+      <c r="F98" t="s">
+        <v>231</v>
+      </c>
+      <c r="I98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>733</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" t="s">
+        <v>428</v>
+      </c>
+      <c r="F99" t="s">
+        <v>231</v>
+      </c>
+      <c r="I99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>732</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" t="s">
+        <v>428</v>
+      </c>
+      <c r="F100" t="s">
+        <v>231</v>
+      </c>
+      <c r="I100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>731</v>
+      </c>
+      <c r="C101" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" t="s">
+        <v>428</v>
+      </c>
+      <c r="F101" t="s">
+        <v>231</v>
+      </c>
+      <c r="I101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07748F0C-CE3F-42B1-961E-411301A80C4F}">
   <dimension ref="A1:P101"/>
   <sheetViews>
@@ -10051,7 +12890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C84F7B-48AF-466F-9BB2-597292AE2C5C}">
   <dimension ref="A1:N129"/>
   <sheetViews>
@@ -13063,7 +15902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6285A5CB-5B8A-4BBB-A905-3FDC0C9C9DD1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13077,7 +15916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD234"/>
   <sheetViews>
@@ -19472,7 +22311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE60510-7D42-492E-88D8-37A6A77DD95D}">
   <dimension ref="A1:DD102"/>
   <sheetViews>
@@ -23903,12 +26742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540FB65C-DB34-4596-B31F-FC859CCB543C}">
   <dimension ref="B2:AE75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24039,11 +26878,11 @@
       <c r="P5" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="Q5" s="44" t="str">
+      <c r="Q5" s="42" t="str">
         <f>ROUND(0.0002858255,4)&amp;"***"</f>
         <v>0,0003***</v>
       </c>
-      <c r="R5" s="44" t="str">
+      <c r="R5" s="42" t="str">
         <f>ROUND(0.0007452197,4)&amp;"***"</f>
         <v>0,0007***</v>
       </c>
@@ -24073,11 +26912,11 @@
       <c r="P6" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="Q6" s="44" t="str">
+      <c r="Q6" s="42" t="str">
         <f>ROUND(0.003311928,4)&amp;"**"</f>
         <v>0,0033**</v>
       </c>
-      <c r="R6" s="44" t="str">
+      <c r="R6" s="42" t="str">
         <f>ROUND(0.0000583151,4)&amp;"***"</f>
         <v>0,0001***</v>
       </c>
@@ -24107,11 +26946,11 @@
       <c r="P7" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="Q7" s="44" t="str">
+      <c r="Q7" s="42" t="str">
         <f>ROUND(0.009126611,4)&amp;"**"</f>
         <v>0,0091**</v>
       </c>
-      <c r="R7" s="44" t="str">
+      <c r="R7" s="42" t="str">
         <f>ROUND(0.0000002155552,4)&amp;"***"</f>
         <v>0***</v>
       </c>
@@ -24171,11 +27010,11 @@
       <c r="P10" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="Q10" s="44" t="str">
+      <c r="Q10" s="42" t="str">
         <f>ROUND(0.0218072228,4)&amp;"*"</f>
         <v>0,0218*</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="43">
         <f>0.2291410844</f>
         <v>0.2291410844</v>
       </c>
@@ -24208,11 +27047,11 @@
       <c r="P11" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="Q11" s="44" t="str">
+      <c r="Q11" s="42" t="str">
         <f>0.0281022508&amp;"*"</f>
         <v>0,0281022508*</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="43">
         <f>0.2185918042</f>
         <v>0.21859180419999999</v>
       </c>
@@ -24245,18 +27084,16 @@
       <c r="P12" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="Q12" s="44" t="str">
+      <c r="Q12" s="42" t="str">
         <f>0.0063982168&amp;"**"</f>
         <v>0,0063982168**</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="43">
         <v>0.15795163949999999</v>
       </c>
-      <c r="AA12" s="53" t="s">
+      <c r="AA12" s="50" t="s">
         <v>658</v>
       </c>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -24280,13 +27117,13 @@
       <c r="I13" s="12">
         <v>1.0750708</v>
       </c>
-      <c r="AA13" s="55" t="s">
+      <c r="AA13" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="AC13" s="55" t="s">
+      <c r="AC13" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="AE13" s="55" t="s">
+      <c r="AE13" s="51" t="s">
         <v>682</v>
       </c>
     </row>
@@ -24312,41 +27149,37 @@
       <c r="I14" s="32">
         <v>0.84613229999999995</v>
       </c>
-      <c r="AA14" s="55" t="s">
+      <c r="AA14" s="51" t="s">
         <v>677</v>
       </c>
-      <c r="AC14" s="55" t="s">
+      <c r="AC14" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="AE14" s="55" t="s">
+      <c r="AE14" s="51" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="AA15" s="55" t="s">
+      <c r="AA15" s="51" t="s">
         <v>678</v>
       </c>
-      <c r="AC15" s="55" t="s">
+      <c r="AC15" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="AE15" s="55" t="s">
+      <c r="AE15" s="51" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA16" s="52"/>
+    </row>
+    <row r="17" spans="2:31" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>633</v>
       </c>
-      <c r="AA17" s="53" t="s">
+      <c r="AA17" s="50" t="s">
         <v>659</v>
       </c>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.35">
       <c r="P18" s="37"/>
@@ -24354,18 +27187,18 @@
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
-      <c r="U18" s="49"/>
-      <c r="AA18" s="57" t="s">
+      <c r="U18" s="46"/>
+      <c r="AA18" s="53" t="s">
         <v>676</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
-      <c r="AC18" s="55" t="s">
+      <c r="AC18" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="55" t="s">
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="51" t="s">
         <v>682</v>
       </c>
     </row>
@@ -24373,14 +27206,14 @@
       <c r="B19" s="37" t="s">
         <v>657</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="59" t="s">
         <v>627</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="F19" s="40" t="s">
+      <c r="D19" s="59"/>
+      <c r="F19" s="59" t="s">
         <v>626</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="59"/>
       <c r="I19" t="s">
         <v>625</v>
       </c>
@@ -24390,25 +27223,25 @@
       <c r="L19" t="s">
         <v>626</v>
       </c>
-      <c r="Q19" s="46" t="s">
+      <c r="Q19" s="57" t="s">
         <v>627</v>
       </c>
-      <c r="R19" s="46"/>
-      <c r="T19" s="46" t="s">
+      <c r="R19" s="57"/>
+      <c r="T19" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="U19" s="46"/>
-      <c r="AA19" s="57" t="s">
+      <c r="U19" s="57"/>
+      <c r="AA19" s="53" t="s">
         <v>677</v>
       </c>
       <c r="AB19">
         <v>1</v>
       </c>
-      <c r="AC19" s="55" t="s">
+      <c r="AC19" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="55" t="s">
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="51" t="s">
         <v>683</v>
       </c>
     </row>
@@ -24441,33 +27274,33 @@
       <c r="M20" t="s">
         <v>629</v>
       </c>
-      <c r="P20" s="47" t="s">
+      <c r="P20" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="Q20" s="48" t="s">
+      <c r="Q20" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="R20" s="48" t="s">
+      <c r="R20" s="45" t="s">
         <v>630</v>
       </c>
       <c r="S20" s="37"/>
-      <c r="T20" s="48" t="s">
+      <c r="T20" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="U20" s="48" t="s">
+      <c r="U20" s="45" t="s">
         <v>629</v>
       </c>
-      <c r="AA20" s="57" t="s">
+      <c r="AA20" s="53" t="s">
         <v>678</v>
       </c>
       <c r="AB20">
         <v>1</v>
       </c>
-      <c r="AC20" s="55" t="s">
+      <c r="AC20" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="55" t="s">
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="51" t="s">
         <v>684</v>
       </c>
     </row>
@@ -24494,16 +27327,16 @@
       <c r="I21" t="s">
         <v>631</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="40">
         <v>1</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="40">
         <v>1</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="40">
         <v>1</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="40">
         <v>1</v>
       </c>
       <c r="P21" s="28" t="s">
@@ -24521,11 +27354,9 @@
       <c r="U21" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="AA21" s="58"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA21" s="54"/>
+    </row>
+    <row r="22" spans="2:31" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>622</v>
       </c>
@@ -24548,19 +27379,19 @@
       <c r="I22" t="s">
         <v>622</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="41">
         <f>D12/$D$11</f>
         <v>0.5261467019302839</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="40">
         <f>G12/$G$11</f>
         <v>0.59869780575142362</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="41">
         <f>D5/$D$4</f>
         <v>0.52881280367397432</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="40">
         <f>G5/$G$4</f>
         <v>0.69126471468362927</v>
       </c>
@@ -24579,11 +27410,9 @@
       <c r="U22" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="AA22" s="53" t="s">
+      <c r="AA22" s="50" t="s">
         <v>660</v>
       </c>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -24608,49 +27437,49 @@
       <c r="I23" t="s">
         <v>623</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="40">
         <f>D13/$D$11</f>
         <v>0.7317529997594584</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="40">
         <f>G13/$G$11</f>
         <v>0.64485639706193698</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="40">
         <f>D6/$D$4</f>
         <v>0.58889384258172439</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="40">
         <f>G6/$G$4</f>
         <v>0.69002561197986123</v>
       </c>
-      <c r="P23" s="48" t="s">
+      <c r="P23" s="45" t="s">
         <v>624</v>
       </c>
-      <c r="Q23" s="48" t="s">
+      <c r="Q23" s="45" t="s">
         <v>666</v>
       </c>
-      <c r="R23" s="48" t="s">
+      <c r="R23" s="45" t="s">
         <v>667</v>
       </c>
       <c r="S23" s="37"/>
-      <c r="T23" s="48" t="s">
+      <c r="T23" s="45" t="s">
         <v>672</v>
       </c>
-      <c r="U23" s="48" t="s">
+      <c r="U23" s="45" t="s">
         <v>673</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
-      <c r="AA23" s="57" t="s">
+      <c r="AA23" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="AC23" s="55" t="s">
+      <c r="AC23" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="55" t="s">
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="51" t="s">
         <v>682</v>
       </c>
     </row>
@@ -24678,76 +27507,76 @@
       <c r="I24" t="s">
         <v>624</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="40">
         <f>D14/$D$11</f>
         <v>0.72042543081963584</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="41">
         <f>G14/$G$11</f>
         <v>0.55779226413010896</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="40">
         <f>D7/$D$4</f>
         <v>0.73776663635269679</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="41">
         <f>G7/$G$4</f>
         <v>0.67864785381010972</v>
       </c>
-      <c r="P24" s="50" t="s">
+      <c r="P24" s="47" t="s">
         <v>674</v>
       </c>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
       <c r="Z24">
         <v>1</v>
       </c>
-      <c r="AA24" s="57" t="s">
+      <c r="AA24" s="53" t="s">
         <v>677</v>
       </c>
-      <c r="AC24" s="55" t="s">
+      <c r="AC24" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="55" t="s">
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="51" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="P25" s="50" t="s">
+      <c r="P25" s="47" t="s">
         <v>675</v>
       </c>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
       <c r="Z25">
         <v>1</v>
       </c>
-      <c r="AA25" s="57" t="s">
+      <c r="AA25" s="53" t="s">
         <v>678</v>
       </c>
-      <c r="AC25" s="55" t="s">
+      <c r="AC25" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="55" t="s">
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="51" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="F26" s="41" t="s">
+      <c r="D26" s="58"/>
+      <c r="F26" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="58"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
@@ -24766,10 +27595,10 @@
         <v>629</v>
       </c>
       <c r="P27" s="28"/>
-      <c r="Z27" s="57" t="s">
+      <c r="Z27" s="53" t="s">
         <v>687</v>
       </c>
-      <c r="AA27" s="57"/>
+      <c r="AA27" s="53"/>
     </row>
     <row r="28" spans="2:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -24792,11 +27621,9 @@
         <v>11.06123</v>
       </c>
       <c r="P28" s="28"/>
-      <c r="AA28" s="53" t="s">
+      <c r="AA28" s="50" t="s">
         <v>658</v>
       </c>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
@@ -24822,13 +27649,13 @@
       <c r="Z29">
         <v>1</v>
       </c>
-      <c r="AA29" s="55" t="s">
+      <c r="AA29" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="AC29" s="55" t="s">
+      <c r="AC29" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="AE29" s="55" t="s">
+      <c r="AE29" s="51" t="s">
         <v>682</v>
       </c>
     </row>
@@ -24852,19 +27679,19 @@
         <f>G6</f>
         <v>7.6325320000000003</v>
       </c>
-      <c r="AA30" s="55" t="s">
+      <c r="AA30" s="51" t="s">
         <v>677</v>
       </c>
       <c r="AB30">
         <v>1</v>
       </c>
-      <c r="AC30" s="55" t="s">
+      <c r="AC30" s="51" t="s">
         <v>680</v>
       </c>
       <c r="AD30">
         <v>1</v>
       </c>
-      <c r="AE30" s="55" t="s">
+      <c r="AE30" s="51" t="s">
         <v>683</v>
       </c>
     </row>
@@ -24888,86 +27715,82 @@
         <f>G7</f>
         <v>7.5066800000000002</v>
       </c>
-      <c r="AA31" s="55" t="s">
+      <c r="AA31" s="51" t="s">
         <v>678</v>
       </c>
-      <c r="AC31" s="55" t="s">
+      <c r="AC31" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="AE31" s="55" t="s">
+      <c r="AE31" s="51" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
+      <c r="AA32" s="52"/>
     </row>
     <row r="33" spans="2:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>634</v>
       </c>
-      <c r="AA33" s="53" t="s">
+      <c r="AA33" s="50" t="s">
         <v>659</v>
       </c>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41" t="s">
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="AA34" s="57" t="s">
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="AA34" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="AC34" s="55" t="s">
+      <c r="AC34" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="AD34" s="57"/>
-      <c r="AE34" s="55" t="s">
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="51" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41" t="s">
+      <c r="D35" s="58"/>
+      <c r="E35" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41" t="s">
+      <c r="H35" s="58"/>
+      <c r="I35" s="58" t="s">
         <v>630</v>
       </c>
-      <c r="J35" s="41"/>
+      <c r="J35" s="58"/>
       <c r="Z35">
         <v>1</v>
       </c>
-      <c r="AA35" s="57" t="s">
+      <c r="AA35" s="53" t="s">
         <v>677</v>
       </c>
       <c r="AB35">
         <v>1</v>
       </c>
-      <c r="AC35" s="55" t="s">
+      <c r="AC35" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="55" t="s">
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="51" t="s">
         <v>683</v>
       </c>
     </row>
@@ -24996,14 +27819,14 @@
       <c r="J36" t="s">
         <v>580</v>
       </c>
-      <c r="AA36" s="57" t="s">
+      <c r="AA36" s="53" t="s">
         <v>678</v>
       </c>
-      <c r="AC36" s="55" t="s">
+      <c r="AC36" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="55" t="s">
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="51" t="s">
         <v>684</v>
       </c>
     </row>
@@ -25039,9 +27862,7 @@
         <f>ROUND(I11,2)&amp;"%"</f>
         <v>1,48%</v>
       </c>
-      <c r="AA37" s="58"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="54"/>
+      <c r="AA37" s="54"/>
     </row>
     <row r="38" spans="2:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -25075,11 +27896,9 @@
         <f>ROUND(I12,2)&amp;"%"</f>
         <v>0,91%</v>
       </c>
-      <c r="AA38" s="53" t="s">
+      <c r="AA38" s="50" t="s">
         <v>660</v>
       </c>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
@@ -25113,14 +27932,14 @@
         <f>ROUND(I13,2)&amp;"%"</f>
         <v>1,08%</v>
       </c>
-      <c r="AA39" s="57" t="s">
+      <c r="AA39" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="AC39" s="55" t="s">
+      <c r="AC39" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="55" t="s">
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="51" t="s">
         <v>682</v>
       </c>
     </row>
@@ -25156,276 +27975,355 @@
         <f>ROUND(I14,2)&amp;"%"</f>
         <v>0,85%</v>
       </c>
-      <c r="AA40" s="57" t="s">
+      <c r="AA40" s="53" t="s">
         <v>677</v>
       </c>
       <c r="AB40">
         <v>1</v>
       </c>
-      <c r="AC40" s="55" t="s">
+      <c r="AC40" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="AD40" s="57">
+      <c r="AD40" s="53">
         <v>1</v>
       </c>
-      <c r="AE40" s="55" t="s">
+      <c r="AE40" s="51" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="AA41" s="57" t="s">
+      <c r="AA41" s="53" t="s">
         <v>678</v>
       </c>
-      <c r="AC41" s="55" t="s">
+      <c r="AC41" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="AD41" s="57"/>
-      <c r="AE41" s="55" t="s">
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="51" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="43" spans="2:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Z43" s="57" t="s">
+      <c r="Z43" s="53" t="s">
         <v>688</v>
       </c>
-      <c r="AA43" s="57"/>
+      <c r="AA43" s="53"/>
     </row>
     <row r="44" spans="2:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA44" s="53" t="s">
+      <c r="AA44" s="50" t="s">
         <v>658</v>
       </c>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="AA45" s="55" t="s">
+      <c r="AA45" s="51" t="s">
         <v>676</v>
       </c>
       <c r="AB45">
         <v>1</v>
       </c>
-      <c r="AC45" s="55" t="s">
+      <c r="AC45" s="51" t="s">
         <v>679</v>
       </c>
       <c r="AD45">
         <v>1</v>
       </c>
-      <c r="AE45" s="55" t="s">
+      <c r="AE45" s="51" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>578</v>
+      </c>
+      <c r="F46" t="s">
+        <v>578</v>
+      </c>
+      <c r="G46" t="s">
+        <v>578</v>
+      </c>
+      <c r="H46" t="s">
+        <v>655</v>
+      </c>
       <c r="Z46">
         <v>1</v>
       </c>
-      <c r="AA46" s="55" t="s">
+      <c r="AA46" s="51" t="s">
         <v>677</v>
       </c>
-      <c r="AC46" s="55" t="s">
+      <c r="AC46" s="51" t="s">
         <v>680</v>
       </c>
       <c r="AD46">
         <v>1</v>
       </c>
-      <c r="AE46" s="55" t="s">
+      <c r="AE46" s="51" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>653</v>
+      </c>
+      <c r="F47" t="s">
+        <v>654</v>
+      </c>
+      <c r="G47" t="s">
+        <v>653</v>
+      </c>
+      <c r="H47" t="s">
+        <v>578</v>
+      </c>
       <c r="Z47">
         <v>1</v>
       </c>
-      <c r="AA47" s="55" t="s">
+      <c r="AA47" s="51" t="s">
         <v>678</v>
       </c>
       <c r="AB47">
         <v>1</v>
       </c>
-      <c r="AC47" s="55" t="s">
+      <c r="AC47" s="51" t="s">
         <v>681</v>
       </c>
       <c r="AD47">
         <v>1</v>
       </c>
-      <c r="AE47" s="55" t="s">
+      <c r="AE47" s="51" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
-    </row>
-    <row r="49" spans="26:31" ht="11" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA49" s="53" t="s">
+      <c r="B48" t="s">
+        <v>615</v>
+      </c>
+      <c r="D48" s="60">
+        <v>6.7389569999999996E-2</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="60">
+        <v>9.6357360000000003E-2</v>
+      </c>
+      <c r="G48" s="14">
+        <v>10.138339999999999</v>
+      </c>
+      <c r="H48" s="14">
+        <v>11.06123</v>
+      </c>
+      <c r="AA48" s="52"/>
+    </row>
+    <row r="49" spans="2:31" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>616</v>
+      </c>
+      <c r="D49" s="61">
+        <v>3.5456799999999997E-2</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="62">
+        <v>5.7688940000000001E-2</v>
+      </c>
+      <c r="G49" s="30">
+        <v>5.3612840000000004</v>
+      </c>
+      <c r="H49" s="11">
+        <v>7.6462380000000003</v>
+      </c>
+      <c r="AA49" s="50" t="s">
         <v>659</v>
       </c>
-      <c r="AB49" s="54"/>
-      <c r="AC49" s="54"/>
-    </row>
-    <row r="50" spans="26:31" x14ac:dyDescent="0.35">
-      <c r="AA50" s="57" t="s">
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>617</v>
+      </c>
+      <c r="D50" s="62">
+        <v>4.9312519999999999E-2</v>
+      </c>
+      <c r="E50" s="27"/>
+      <c r="F50" s="62">
+        <v>6.2136660000000003E-2</v>
+      </c>
+      <c r="G50" s="11">
+        <v>5.9704059999999997</v>
+      </c>
+      <c r="H50" s="11">
+        <v>7.6325320000000003</v>
+      </c>
+      <c r="AA50" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="AC50" s="55" t="s">
+      <c r="AC50" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="AD50" s="57">
+      <c r="AD50" s="53">
         <v>1</v>
       </c>
-      <c r="AE50" s="55" t="s">
+      <c r="AE50" s="51" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="51" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D51" s="62">
+        <v>4.8549160000000001E-2</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="61">
+        <v>5.3747389999999999E-2</v>
+      </c>
+      <c r="G51" s="11">
+        <v>7.4797289999999998</v>
+      </c>
+      <c r="H51" s="30">
+        <v>7.5066800000000002</v>
+      </c>
       <c r="Z51">
         <v>1</v>
       </c>
-      <c r="AA51" s="57" t="s">
+      <c r="AA51" s="53" t="s">
         <v>677</v>
       </c>
-      <c r="AC51" s="55" t="s">
+      <c r="AC51" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="AD51" s="57">
+      <c r="AD51" s="53">
         <v>1</v>
       </c>
-      <c r="AE51" s="55" t="s">
+      <c r="AE51" s="51" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="52" spans="26:31" x14ac:dyDescent="0.35">
-      <c r="AA52" s="57" t="s">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA52" s="53" t="s">
         <v>678</v>
       </c>
       <c r="AB52">
         <v>1</v>
       </c>
-      <c r="AC52" s="55" t="s">
+      <c r="AC52" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="AD52" s="57">
+      <c r="AD52" s="53">
         <v>1</v>
       </c>
-      <c r="AE52" s="55" t="s">
+      <c r="AE52" s="51" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="53" spans="26:31" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA53" s="58"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="54"/>
-    </row>
-    <row r="54" spans="26:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA54" s="53" t="s">
+    <row r="53" spans="2:31" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA53" s="54"/>
+    </row>
+    <row r="54" spans="2:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA54" s="50" t="s">
         <v>660</v>
       </c>
-      <c r="AC54" s="54"/>
-      <c r="AD54" s="54"/>
-    </row>
-    <row r="55" spans="26:31" x14ac:dyDescent="0.35">
-      <c r="AA55" s="57" t="s">
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA55" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="AC55" s="55" t="s">
+      <c r="AC55" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="AD55" s="57">
+      <c r="AD55" s="53">
         <v>1</v>
       </c>
-      <c r="AE55" s="55" t="s">
+      <c r="AE55" s="51" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="56" spans="26:31" x14ac:dyDescent="0.35">
-      <c r="AA56" s="57" t="s">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AA56" s="53" t="s">
         <v>677</v>
       </c>
       <c r="AB56">
         <v>1</v>
       </c>
-      <c r="AC56" s="55" t="s">
+      <c r="AC56" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="AD56" s="57">
+      <c r="AD56" s="53">
         <v>1</v>
       </c>
-      <c r="AE56" s="55" t="s">
+      <c r="AE56" s="51" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="57" spans="26:31" x14ac:dyDescent="0.35">
-      <c r="AA57" s="57" t="s">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G57" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA57" s="53" t="s">
         <v>678</v>
       </c>
       <c r="AB57">
         <v>1</v>
       </c>
-      <c r="AC57" s="55" t="s">
+      <c r="AC57" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="AD57" s="57">
+      <c r="AD57" s="53">
         <v>1</v>
       </c>
-      <c r="AE57" s="55" t="s">
+      <c r="AE57" s="51" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="61" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.35">
       <c r="AA61" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="26:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="AA62" s="53" t="s">
+    <row r="62" spans="2:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="AA62" s="50" t="s">
         <v>658</v>
       </c>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-    </row>
-    <row r="63" spans="26:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.35">
       <c r="Z63">
         <f>SUM(Z13,Z29)</f>
         <v>1</v>
       </c>
-      <c r="AA63" s="55" t="s">
+      <c r="AA63" s="51" t="s">
         <v>676</v>
       </c>
       <c r="AB63">
         <f>SUM(AB13,AB29)</f>
         <v>0</v>
       </c>
-      <c r="AC63" s="55" t="s">
+      <c r="AC63" s="51" t="s">
         <v>679</v>
       </c>
       <c r="AD63">
         <f>SUM(AD13,AD29)</f>
         <v>0</v>
       </c>
-      <c r="AE63" s="55" t="s">
+      <c r="AE63" s="51" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="64" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.35">
       <c r="Z64">
         <f t="shared" ref="Z64:AB75" si="0">SUM(Z14,Z30)</f>
         <v>0</v>
       </c>
-      <c r="AA64" s="55" t="s">
+      <c r="AA64" s="51" t="s">
         <v>677</v>
       </c>
       <c r="AB64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC64" s="55" t="s">
+      <c r="AC64" s="51" t="s">
         <v>680</v>
       </c>
       <c r="AD64">
         <f t="shared" ref="AD64" si="1">SUM(AD14,AD30)</f>
         <v>1</v>
       </c>
-      <c r="AE64" s="55" t="s">
+      <c r="AE64" s="51" t="s">
         <v>683</v>
       </c>
     </row>
@@ -25434,54 +28332,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA65" s="55" t="s">
+      <c r="AA65" s="51" t="s">
         <v>678</v>
       </c>
       <c r="AB65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC65" s="55" t="s">
+      <c r="AC65" s="51" t="s">
         <v>681</v>
       </c>
       <c r="AD65">
         <f t="shared" ref="AD65" si="2">SUM(AD15,AD31)</f>
         <v>0</v>
       </c>
-      <c r="AE65" s="55" t="s">
+      <c r="AE65" s="51" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="66" spans="26:31" x14ac:dyDescent="0.35">
-      <c r="AA66" s="56"/>
-      <c r="AC66" s="54"/>
+      <c r="AA66" s="52"/>
     </row>
     <row r="67" spans="26:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="AA67" s="53" t="s">
+      <c r="AA67" s="50" t="s">
         <v>659</v>
       </c>
-      <c r="AC67" s="54"/>
     </row>
     <row r="68" spans="26:31" x14ac:dyDescent="0.35">
       <c r="Z68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA68" s="57" t="s">
+      <c r="AA68" s="53" t="s">
         <v>676</v>
       </c>
       <c r="AB68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC68" s="55" t="s">
+      <c r="AC68" s="51" t="s">
         <v>679</v>
       </c>
       <c r="AD68">
         <f t="shared" ref="AD68" si="3">SUM(AD18,AD34)</f>
         <v>0</v>
       </c>
-      <c r="AE68" s="55" t="s">
+      <c r="AE68" s="51" t="s">
         <v>682</v>
       </c>
     </row>
@@ -25490,21 +28386,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA69" s="57" t="s">
+      <c r="AA69" s="53" t="s">
         <v>677</v>
       </c>
       <c r="AB69">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC69" s="55" t="s">
+      <c r="AC69" s="51" t="s">
         <v>680</v>
       </c>
       <c r="AD69">
         <f t="shared" ref="AD69" si="4">SUM(AD19,AD35)</f>
         <v>0</v>
       </c>
-      <c r="AE69" s="55" t="s">
+      <c r="AE69" s="51" t="s">
         <v>683</v>
       </c>
     </row>
@@ -25513,54 +28409,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA70" s="57" t="s">
+      <c r="AA70" s="53" t="s">
         <v>678</v>
       </c>
       <c r="AB70" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC70" s="59" t="s">
+      <c r="AC70" s="55" t="s">
         <v>681</v>
       </c>
       <c r="AD70">
         <f t="shared" ref="AD70" si="5">SUM(AD20,AD36)</f>
         <v>0</v>
       </c>
-      <c r="AE70" s="55" t="s">
+      <c r="AE70" s="51" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="71" spans="26:31" x14ac:dyDescent="0.35">
-      <c r="AA71" s="58"/>
-      <c r="AC71" s="54"/>
+      <c r="AA71" s="54"/>
     </row>
     <row r="72" spans="26:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="AA72" s="53" t="s">
+      <c r="AA72" s="50" t="s">
         <v>660</v>
       </c>
-      <c r="AC72" s="54"/>
     </row>
     <row r="73" spans="26:31" x14ac:dyDescent="0.35">
       <c r="Z73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA73" s="57" t="s">
+      <c r="AA73" s="53" t="s">
         <v>676</v>
       </c>
       <c r="AB73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC73" s="55" t="s">
+      <c r="AC73" s="51" t="s">
         <v>679</v>
       </c>
       <c r="AD73">
         <f t="shared" ref="AD73" si="6">SUM(AD23,AD39)</f>
         <v>0</v>
       </c>
-      <c r="AE73" s="55" t="s">
+      <c r="AE73" s="51" t="s">
         <v>682</v>
       </c>
     </row>
@@ -25569,21 +28463,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA74" s="57" t="s">
+      <c r="AA74" s="53" t="s">
         <v>677</v>
       </c>
       <c r="AB74">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC74" s="55" t="s">
+      <c r="AC74" s="51" t="s">
         <v>680</v>
       </c>
       <c r="AD74">
         <f t="shared" ref="AD74" si="7">SUM(AD24,AD40)</f>
         <v>1</v>
       </c>
-      <c r="AE74" s="55" t="s">
+      <c r="AE74" s="51" t="s">
         <v>683</v>
       </c>
     </row>
@@ -25592,21 +28486,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA75" s="57" t="s">
+      <c r="AA75" s="53" t="s">
         <v>678</v>
       </c>
       <c r="AB75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC75" s="55" t="s">
+      <c r="AC75" s="51" t="s">
         <v>681</v>
       </c>
       <c r="AD75">
         <f t="shared" ref="AD75" si="8">SUM(AD25,AD41)</f>
         <v>0</v>
       </c>
-      <c r="AE75" s="55" t="s">
+      <c r="AE75" s="51" t="s">
         <v>684</v>
       </c>
     </row>
@@ -25629,7 +28523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3870FAA5-0C9A-4077-820D-651F982FFC52}">
   <dimension ref="H3:AI53"/>
   <sheetViews>
@@ -26692,18 +29586,18 @@
       </c>
     </row>
     <row r="35" spans="9:32" x14ac:dyDescent="0.35">
-      <c r="Y35" s="41" t="s">
+      <c r="Y35" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41" t="s">
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="58"/>
     </row>
     <row r="36" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I36" s="10" t="s">
@@ -26731,22 +29625,22 @@
       <c r="Q36" t="s">
         <v>600</v>
       </c>
-      <c r="Y36" s="41" t="s">
+      <c r="Y36" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41" t="s">
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41" t="s">
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41" t="s">
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58" t="s">
         <v>630</v>
       </c>
-      <c r="AF36" s="41"/>
+      <c r="AF36" s="58"/>
     </row>
     <row r="37" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I37" t="s">
@@ -27111,217 +30005,4 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EB6AD7-BBCF-41A4-A705-09A536484B28}">
-  <dimension ref="A1:A39"/>
-  <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Data Info/DadosEscolhidos.xlsx
+++ b/Data Info/DadosEscolhidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5e0ae908eb1af8/Documentos/GitHub/gdp-forecasting-with-ML/Data Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2911" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB78DE4F-8003-42AD-A1DD-A607BF8079E3}"/>
+  <xr:revisionPtr revIDLastSave="3046" documentId="11_AD4D361C20488DEA4E38A0E30418638E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81F1464F-C733-4010-8899-B03F54C2FF68}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Official Series - Quarterly" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Official Series - Quarterly'!$A$1:$J$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7356" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7383" uniqueCount="780">
   <si>
     <t>NSAprod_cam_br</t>
   </si>
@@ -2340,10 +2339,91 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>DEE - Economics and Statistics Department</t>
-  </si>
-  <si>
-    <t>0.</t>
+    <t>Bagé (RS)</t>
+  </si>
+  <si>
+    <t>Bom Jesus (RS)</t>
+  </si>
+  <si>
+    <t>Caxias do Sul (RS)</t>
+  </si>
+  <si>
+    <t>Cruz Alta (RS)</t>
+  </si>
+  <si>
+    <t>Encruzilhada do Sul (RS)</t>
+  </si>
+  <si>
+    <t>Passo Fundo (RS)</t>
+  </si>
+  <si>
+    <t>Pelotas (RS)</t>
+  </si>
+  <si>
+    <t>Porto Alegre (RS)</t>
+  </si>
+  <si>
+    <t>Santa Maria (RS)</t>
+  </si>
+  <si>
+    <t>Santa Vitória do Palmar (RS)</t>
+  </si>
+  <si>
+    <t>São Luiz Gonzaga (RS)</t>
+  </si>
+  <si>
+    <t>Torres (RS)</t>
+  </si>
+  <si>
+    <t>Uruguaiana (RS)</t>
+  </si>
+  <si>
+    <t>Líder do Estado em PIB total</t>
+  </si>
+  <si>
+    <t>Segunda maior economia municipal do RS.</t>
+  </si>
+  <si>
+    <t>Top 10 municípios com maior PIB no estado.</t>
+  </si>
+  <si>
+    <t>Maior produtor de celulose e produtos florestais.</t>
+  </si>
+  <si>
+    <t>Top 10 maiores produtores de milho</t>
+  </si>
+  <si>
+    <t>Top 10 maiores produtores de milho e feijão do estado</t>
+  </si>
+  <si>
+    <t>Top 10 maiores produtores de milho e trigo do estado</t>
+  </si>
+  <si>
+    <t>Top 10 maiores rebanhos bovinos</t>
+  </si>
+  <si>
+    <t>Top 10 municípios com maior PIB agro no estado, top 10 maiores rebanhos bovinos.</t>
+  </si>
+  <si>
+    <t>Top 10 municípios com maior PIB agro no estado, maior produtor de arroz.</t>
+  </si>
+  <si>
+    <t>Série de dados do INMET bem preservada.Top 10 municípios com maior PIB de serviços no estado.</t>
+  </si>
+  <si>
+    <t>Série de dados do INMET bem preservada.</t>
+  </si>
+  <si>
+    <t>DEE - Departamento de Economia e estatística</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Municipal: Bagé (RS), Bom Jesus (RS), Caxias do Sul (RS), Cruz Alta (RS), Encruzilhada do Sul (RS), Passo Fundo (RS), Pelotas (RS), Porto Alegre (RS), Santa Maria (RS), Santa Vitória do Palmar (RS), São Luiz Gonzaga (RS), Torres (RS), Uruguaiana (RS)</t>
+  </si>
+  <si>
+    <t>KWh</t>
   </si>
 </sst>
 </file>
@@ -2545,7 +2625,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2685,6 +2765,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2694,15 +2783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2720,6 +2801,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>63084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525193</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>142686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A76DD65-6B05-DE77-17F2-8D44A17FBC24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939131" y="18467041"/>
+          <a:ext cx="1182694" cy="1716383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29956</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>26780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133522</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>133901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1996EA8-CEC0-05C4-B64F-443F622C2313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11236326" y="19524041"/>
+          <a:ext cx="2025131" cy="1747077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2991,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC43247-4F7A-412E-B82F-0C6D32656462}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="D19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5955,7 +6129,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>342</v>
       </c>
@@ -5990,7 +6164,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>342</v>
       </c>
@@ -6025,7 +6199,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>342</v>
       </c>
@@ -6060,7 +6234,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -6095,7 +6269,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>342</v>
       </c>
@@ -6130,7 +6304,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>342</v>
       </c>
@@ -6165,7 +6339,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>342</v>
       </c>
@@ -6200,7 +6374,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>342</v>
       </c>
@@ -6235,7 +6409,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>342</v>
       </c>
@@ -6270,7 +6444,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>342</v>
       </c>
@@ -6305,7 +6479,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>533</v>
       </c>
@@ -6337,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>533</v>
       </c>
@@ -6373,7 +6547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>533</v>
       </c>
@@ -6405,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>533</v>
       </c>
@@ -6436,8 +6610,14 @@
       <c r="J94" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M94" t="s">
+        <v>751</v>
+      </c>
+      <c r="N94" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>533</v>
       </c>
@@ -6468,8 +6648,14 @@
       <c r="J95" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M95" t="s">
+        <v>752</v>
+      </c>
+      <c r="N95" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>533</v>
       </c>
@@ -6500,8 +6686,14 @@
       <c r="J96" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M96" t="s">
+        <v>753</v>
+      </c>
+      <c r="N96" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>533</v>
       </c>
@@ -6532,8 +6724,14 @@
       <c r="J97" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M97" t="s">
+        <v>754</v>
+      </c>
+      <c r="N97" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>533</v>
       </c>
@@ -6564,8 +6762,14 @@
       <c r="J98" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M98" t="s">
+        <v>755</v>
+      </c>
+      <c r="N98" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>533</v>
       </c>
@@ -6596,8 +6800,14 @@
       <c r="J99" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M99" t="s">
+        <v>756</v>
+      </c>
+      <c r="N99" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>533</v>
       </c>
@@ -6628,8 +6838,14 @@
       <c r="J100" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M100" t="s">
+        <v>757</v>
+      </c>
+      <c r="N100" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>533</v>
       </c>
@@ -6659,6 +6875,52 @@
       </c>
       <c r="J101" s="7">
         <v>1</v>
+      </c>
+      <c r="M101" t="s">
+        <v>758</v>
+      </c>
+      <c r="N101" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M102" t="s">
+        <v>759</v>
+      </c>
+      <c r="N102" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M103" t="s">
+        <v>760</v>
+      </c>
+      <c r="N103" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M104" t="s">
+        <v>761</v>
+      </c>
+      <c r="N104" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M105" t="s">
+        <v>762</v>
+      </c>
+      <c r="N105" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M106" t="s">
+        <v>763</v>
+      </c>
+      <c r="N106" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.35">
@@ -6667,6 +6929,7 @@
   </sheetData>
   <autoFilter ref="A1:J101" xr:uid="{5BC43247-4F7A-412E-B82F-0C6D32656462}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6887,34 +7150,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FCE4F4-5393-4F0F-8CF3-DD98C9F43B31}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.7265625" customWidth="1"/>
     <col min="2" max="2" width="39.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="63" t="s">
         <v>538</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="63" t="s">
         <v>239</v>
       </c>
       <c r="H1" s="56" t="s">
@@ -6944,13 +7209,13 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F2" t="s">
         <v>227</v>
@@ -6976,7 +7241,7 @@
         <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F3" t="s">
         <v>235</v>
@@ -7002,7 +7267,7 @@
         <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F4" t="s">
         <v>235</v>
@@ -7028,7 +7293,7 @@
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F5" t="s">
         <v>235</v>
@@ -7054,7 +7319,7 @@
         <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F6" t="s">
         <v>235</v>
@@ -7080,7 +7345,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F7" t="s">
         <v>235</v>
@@ -7106,7 +7371,7 @@
         <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F8" t="s">
         <v>235</v>
@@ -7132,7 +7397,7 @@
         <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F9" t="s">
         <v>235</v>
@@ -7158,7 +7423,7 @@
         <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F10" t="s">
         <v>235</v>
@@ -7184,7 +7449,7 @@
         <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F11" t="s">
         <v>235</v>
@@ -7210,7 +7475,7 @@
         <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F12" t="s">
         <v>235</v>
@@ -7626,7 +7891,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F28" t="s">
         <v>541</v>
@@ -7649,7 +7914,7 @@
         <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F29" t="s">
         <v>541</v>
@@ -7672,7 +7937,7 @@
         <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F30" t="s">
         <v>541</v>
@@ -7695,7 +7960,7 @@
         <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F31" t="s">
         <v>541</v>
@@ -7714,9 +7979,11 @@
       <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" t="s">
+        <v>779</v>
+      </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F32" t="s">
         <v>237</v>
@@ -7739,7 +8006,7 @@
         <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F33" t="s">
         <v>229</v>
@@ -7762,7 +8029,7 @@
         <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F34" t="s">
         <v>229</v>
@@ -7785,7 +8052,7 @@
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F35" t="s">
         <v>228</v>
@@ -7808,7 +8075,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F36" t="s">
         <v>236</v>
@@ -7831,7 +8098,7 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F37" t="s">
         <v>236</v>
@@ -8149,7 +8416,9 @@
       <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
       <c r="E51" t="s">
         <v>45</v>
       </c>
@@ -8427,7 +8696,7 @@
         <v>241</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>777</v>
       </c>
       <c r="F63" t="s">
         <v>234</v>
@@ -9059,7 +9328,7 @@
         <v>204</v>
       </c>
       <c r="E91" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F91" t="s">
         <v>231</v>
@@ -9082,7 +9351,7 @@
         <v>205</v>
       </c>
       <c r="E92" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F92" t="s">
         <v>231</v>
@@ -9105,7 +9374,7 @@
         <v>206</v>
       </c>
       <c r="E93" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F93" t="s">
         <v>231</v>
@@ -9128,7 +9397,7 @@
         <v>207</v>
       </c>
       <c r="E94" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F94" t="s">
         <v>231</v>
@@ -9151,7 +9420,7 @@
         <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F95" t="s">
         <v>231</v>
@@ -9174,7 +9443,7 @@
         <v>209</v>
       </c>
       <c r="E96" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F96" t="s">
         <v>231</v>
@@ -9197,7 +9466,7 @@
         <v>209</v>
       </c>
       <c r="E97" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F97" t="s">
         <v>231</v>
@@ -9220,7 +9489,7 @@
         <v>209</v>
       </c>
       <c r="E98" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F98" t="s">
         <v>231</v>
@@ -9243,7 +9512,7 @@
         <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F99" t="s">
         <v>231</v>
@@ -9266,7 +9535,7 @@
         <v>211</v>
       </c>
       <c r="E100" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F100" t="s">
         <v>231</v>
@@ -9289,7 +9558,7 @@
         <v>211</v>
       </c>
       <c r="E101" t="s">
-        <v>428</v>
+        <v>778</v>
       </c>
       <c r="F101" t="s">
         <v>231</v>
@@ -26746,8 +27015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540FB65C-DB34-4596-B31F-FC859CCB543C}">
   <dimension ref="B2:AE75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27206,14 +27475,14 @@
       <c r="B19" s="37" t="s">
         <v>657</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="62" t="s">
         <v>627</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="F19" s="59" t="s">
+      <c r="D19" s="62"/>
+      <c r="F19" s="62" t="s">
         <v>626</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="62"/>
       <c r="I19" t="s">
         <v>625</v>
       </c>
@@ -27223,14 +27492,14 @@
       <c r="L19" t="s">
         <v>626</v>
       </c>
-      <c r="Q19" s="57" t="s">
+      <c r="Q19" s="60" t="s">
         <v>627</v>
       </c>
-      <c r="R19" s="57"/>
-      <c r="T19" s="57" t="s">
+      <c r="R19" s="60"/>
+      <c r="T19" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="U19" s="57"/>
+      <c r="U19" s="60"/>
       <c r="AA19" s="53" t="s">
         <v>677</v>
       </c>
@@ -27569,14 +27838,14 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="61" t="s">
         <v>627</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="F26" s="58" t="s">
+      <c r="D26" s="61"/>
+      <c r="F26" s="61" t="s">
         <v>626</v>
       </c>
-      <c r="G26" s="58"/>
+      <c r="G26" s="61"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
@@ -27737,18 +28006,18 @@
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="61" t="s">
         <v>626</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58" t="s">
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61" t="s">
         <v>627</v>
       </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
       <c r="AA34" s="53" t="s">
         <v>676</v>
       </c>
@@ -27761,22 +28030,22 @@
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="61" t="s">
         <v>628</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58" t="s">
+      <c r="D35" s="61"/>
+      <c r="E35" s="61" t="s">
         <v>629</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58" t="s">
+      <c r="F35" s="61"/>
+      <c r="G35" s="61" t="s">
         <v>628</v>
       </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58" t="s">
+      <c r="H35" s="61"/>
+      <c r="I35" s="61" t="s">
         <v>630</v>
       </c>
-      <c r="J35" s="58"/>
+      <c r="J35" s="61"/>
       <c r="Z35">
         <v>1</v>
       </c>
@@ -28096,11 +28365,11 @@
       <c r="B48" t="s">
         <v>615</v>
       </c>
-      <c r="D48" s="60">
+      <c r="D48" s="57">
         <v>6.7389569999999996E-2</v>
       </c>
       <c r="E48" s="27"/>
-      <c r="F48" s="60">
+      <c r="F48" s="57">
         <v>9.6357360000000003E-2</v>
       </c>
       <c r="G48" s="14">
@@ -28115,11 +28384,11 @@
       <c r="B49" t="s">
         <v>616</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="58">
         <v>3.5456799999999997E-2</v>
       </c>
       <c r="E49" s="27"/>
-      <c r="F49" s="62">
+      <c r="F49" s="59">
         <v>5.7688940000000001E-2</v>
       </c>
       <c r="G49" s="30">
@@ -28136,11 +28405,11 @@
       <c r="B50" t="s">
         <v>617</v>
       </c>
-      <c r="D50" s="62">
+      <c r="D50" s="59">
         <v>4.9312519999999999E-2</v>
       </c>
       <c r="E50" s="27"/>
-      <c r="F50" s="62">
+      <c r="F50" s="59">
         <v>6.2136660000000003E-2</v>
       </c>
       <c r="G50" s="11">
@@ -28166,11 +28435,11 @@
       <c r="B51" t="s">
         <v>618</v>
       </c>
-      <c r="D51" s="62">
+      <c r="D51" s="59">
         <v>4.8549160000000001E-2</v>
       </c>
       <c r="E51" s="27"/>
-      <c r="F51" s="61">
+      <c r="F51" s="58">
         <v>5.3747389999999999E-2</v>
       </c>
       <c r="G51" s="11">
@@ -28252,9 +28521,6 @@
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="G57" t="s">
-        <v>752</v>
-      </c>
       <c r="AA57" s="53" t="s">
         <v>678</v>
       </c>
@@ -29586,18 +29852,18 @@
       </c>
     </row>
     <row r="35" spans="9:32" x14ac:dyDescent="0.35">
-      <c r="Y35" s="58" t="s">
+      <c r="Y35" s="61" t="s">
         <v>626</v>
       </c>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58" t="s">
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="61" t="s">
         <v>627</v>
       </c>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
     </row>
     <row r="36" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I36" s="10" t="s">
@@ -29625,22 +29891,22 @@
       <c r="Q36" t="s">
         <v>600</v>
       </c>
-      <c r="Y36" s="58" t="s">
+      <c r="Y36" s="61" t="s">
         <v>628</v>
       </c>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="58" t="s">
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61" t="s">
         <v>629</v>
       </c>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58" t="s">
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61" t="s">
         <v>628</v>
       </c>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="58" t="s">
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61" t="s">
         <v>630</v>
       </c>
-      <c r="AF36" s="58"/>
+      <c r="AF36" s="61"/>
     </row>
     <row r="37" spans="9:32" x14ac:dyDescent="0.35">
       <c r="I37" t="s">
